--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1147146.528247399</v>
+        <v>1143288.374201019</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6025711.324761784</v>
+        <v>6025711.324761791</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4122675.015801833</v>
+        <v>4122675.015801831</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>32.89721551774593</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>350.971916355507</v>
       </c>
       <c r="H11" t="n">
         <v>266.7106435996681</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1466,7 +1466,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H12" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T12" t="n">
         <v>124.7645818372411</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1548,7 +1548,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I13" t="n">
-        <v>62.05114379168069</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>142.7428278113418</v>
       </c>
       <c r="T13" t="n">
-        <v>239.7660459136613</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6020161941874</v>
@@ -1590,13 +1590,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>47.23604114357362</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>131.6596123843269</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>77.51060098046742</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>246.5219573635027</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H15" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T15" t="n">
         <v>124.7645818372411</v>
@@ -1773,19 +1773,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>122.8402969607701</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>275.6020161941874</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>175.9795195189385</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>343.8863803619298</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>244.8528262581023</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H18" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T18" t="n">
         <v>124.7645818372411</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>127.5471895147489</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.0800288950615</v>
@@ -2022,7 +2022,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I19" t="n">
-        <v>62.05114379168069</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>191.7038322955289</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>408.1631049846605</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>164.2441982463331</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T20" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H21" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T21" t="n">
         <v>124.7645818372411</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H22" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>59.93968889014678</v>
+        <v>27.75812168776678</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2329,13 +2329,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>138.748038087148</v>
+        <v>303.7823390548792</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H23" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.36371861119829</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H24" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T24" t="n">
         <v>124.7645818372411</v>
@@ -2484,7 +2484,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117705</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2496,7 +2496,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I25" t="n">
-        <v>62.05114379168069</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>341.3396437282837</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>359.012535663087</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H27" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T27" t="n">
         <v>124.7645818372411</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0800288950618</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H28" t="n">
         <v>130.898461692684</v>
       </c>
       <c r="I28" t="n">
-        <v>62.05114379168069</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>157.0717085191386</v>
+        <v>313.5274553762722</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.4770341286055</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.36371861119829</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.5194549705165</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H30" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T30" t="n">
         <v>124.7645818372411</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.219212870493</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2970,7 +2970,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I31" t="n">
-        <v>62.05114379168069</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>395.4770341286055</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>356.4010858647022</v>
       </c>
       <c r="Y32" t="n">
-        <v>244.029173662236</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H33" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T33" t="n">
         <v>124.7645818372411</v>
@@ -3207,7 +3207,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I34" t="n">
-        <v>62.05114379168069</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>213.5678093181687</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>194.1079597224425</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H36" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T36" t="n">
         <v>124.7645818372411</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>178.877562679059</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>163.0800288950615</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>239.7660459136613</v>
       </c>
       <c r="U37" t="n">
-        <v>60.42230076203447</v>
+        <v>275.6020161941874</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3508,19 +3508,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>367.0821170953409</v>
       </c>
       <c r="G38" t="n">
-        <v>112.3218522320582</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.36371861119827</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T38" t="n">
         <v>209.5194549705165</v>
@@ -3562,13 +3562,13 @@
         <v>256.4775341414042</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H39" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T39" t="n">
         <v>124.7645818372411</v>
@@ -3663,22 +3663,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T40" t="n">
-        <v>162.3487634761428</v>
+        <v>239.7660459136613</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6020161941874</v>
+        <v>264.579146341449</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>243.069641619125</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>8.070199372040777</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>39.36371861119827</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T41" t="n">
         <v>209.5194549705165</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3836,7 +3836,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H42" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T42" t="n">
         <v>124.7645818372411</v>
@@ -3903,19 +3903,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>118.9990861194934</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.7660459136613</v>
+        <v>143.9722890825824</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6020161941874</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>399.9299684829126</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>266.7106435996681</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.36371861119827</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.5194549705165</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>378.8065904036951</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H45" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T45" t="n">
         <v>124.7645818372411</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>86.80193043297386</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>112.4831500942764</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1212.253747880321</v>
+        <v>1979.72615253546</v>
       </c>
       <c r="C11" t="n">
-        <v>1212.253747880321</v>
+        <v>1541.583679718884</v>
       </c>
       <c r="D11" t="n">
-        <v>1179.024237256335</v>
+        <v>1105.673894893328</v>
       </c>
       <c r="E11" t="n">
-        <v>745.2494924146305</v>
+        <v>671.8991500516231</v>
       </c>
       <c r="F11" t="n">
-        <v>317.3820628238382</v>
+        <v>671.8991500516231</v>
       </c>
       <c r="G11" t="n">
         <v>317.3820628238382</v>
       </c>
       <c r="H11" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I11" t="n">
-        <v>120.3463876521527</v>
+        <v>120.3463876521526</v>
       </c>
       <c r="J11" t="n">
-        <v>280.5668724472633</v>
+        <v>280.5668724472631</v>
       </c>
       <c r="K11" t="n">
-        <v>520.6958462790552</v>
+        <v>520.6958462790549</v>
       </c>
       <c r="L11" t="n">
-        <v>818.5970719737419</v>
+        <v>818.5970719737414</v>
       </c>
       <c r="M11" t="n">
-        <v>1150.069584980172</v>
+        <v>1150.069584980171</v>
       </c>
       <c r="N11" t="n">
-        <v>1486.905669790888</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O11" t="n">
-        <v>1804.970433130816</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P11" t="n">
-        <v>2076.431349953071</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q11" t="n">
-        <v>2280.287193219311</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R11" t="n">
-        <v>2398.868615956151</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S11" t="n">
-        <v>2398.868615956151</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T11" t="n">
-        <v>2398.868615956151</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="U11" t="n">
-        <v>2398.868615956151</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="V11" t="n">
-        <v>2036.251665889977</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="W11" t="n">
-        <v>1631.39621130101</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="X11" t="n">
-        <v>1212.253747880321</v>
+        <v>1979.72615253546</v>
       </c>
       <c r="Y11" t="n">
-        <v>1212.253747880321</v>
+        <v>1979.72615253546</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>79.76014376868005</v>
       </c>
       <c r="H12" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I12" t="n">
-        <v>55.59900615728556</v>
+        <v>55.59900615728668</v>
       </c>
       <c r="J12" t="n">
-        <v>151.025229281049</v>
+        <v>151.0252292810501</v>
       </c>
       <c r="K12" t="n">
-        <v>314.1238438647545</v>
+        <v>314.1238438647555</v>
       </c>
       <c r="L12" t="n">
-        <v>533.4300587917268</v>
+        <v>533.4300587917276</v>
       </c>
       <c r="M12" t="n">
-        <v>789.3500676056079</v>
+        <v>789.3500676056086</v>
       </c>
       <c r="N12" t="n">
         <v>1052.04351753904</v>
       </c>
       <c r="O12" t="n">
-        <v>1292.356702896952</v>
+        <v>1292.356702896953</v>
       </c>
       <c r="P12" t="n">
         <v>1485.229220531343</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.6300349359564</v>
+        <v>1092.508027734434</v>
       </c>
       <c r="C13" t="n">
-        <v>754.0683234191813</v>
+        <v>919.9463162176586</v>
       </c>
       <c r="D13" t="n">
         <v>754.0683234191813</v>
@@ -5196,55 +5196,55 @@
         <v>110.6552953410227</v>
       </c>
       <c r="I13" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J13" t="n">
-        <v>194.4244032063442</v>
+        <v>107.8447180416543</v>
       </c>
       <c r="K13" t="n">
-        <v>567.5632973215136</v>
+        <v>206.2251575856879</v>
       </c>
       <c r="L13" t="n">
-        <v>693.4563887380336</v>
+        <v>505.0479757929228</v>
       </c>
       <c r="M13" t="n">
-        <v>1285.676869303749</v>
+        <v>1097.268456358638</v>
       </c>
       <c r="N13" t="n">
-        <v>1415.257302703179</v>
+        <v>1669.107692915713</v>
       </c>
       <c r="O13" t="n">
-        <v>1692.765776752098</v>
+        <v>2208.465445586771</v>
       </c>
       <c r="P13" t="n">
-        <v>2142.686862247779</v>
+        <v>2310.879637112109</v>
       </c>
       <c r="Q13" t="n">
-        <v>2381.78591478348</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R13" t="n">
-        <v>2398.868615956151</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.68394139924</v>
+        <v>2254.683941399238</v>
       </c>
       <c r="T13" t="n">
-        <v>2012.496016233925</v>
+        <v>2254.683941399238</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.110141290302</v>
+        <v>1976.298066455615</v>
       </c>
       <c r="V13" t="n">
-        <v>1447.154633160732</v>
+        <v>1689.342558326045</v>
       </c>
       <c r="W13" t="n">
-        <v>1399.441460288436</v>
+        <v>1417.316153912337</v>
       </c>
       <c r="X13" t="n">
-        <v>1154.049705621848</v>
+        <v>1417.316153912337</v>
       </c>
       <c r="Y13" t="n">
-        <v>926.6300349359564</v>
+        <v>1284.326646453421</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1745.001083222232</v>
+        <v>126.2709086630294</v>
       </c>
       <c r="C14" t="n">
-        <v>1745.001083222232</v>
+        <v>126.2709086630294</v>
       </c>
       <c r="D14" t="n">
-        <v>1309.091298396676</v>
+        <v>126.2709086630294</v>
       </c>
       <c r="E14" t="n">
-        <v>875.3165535549713</v>
+        <v>126.2709086630294</v>
       </c>
       <c r="F14" t="n">
-        <v>447.449123964179</v>
+        <v>126.2709086630294</v>
       </c>
       <c r="G14" t="n">
-        <v>47.97737231912301</v>
+        <v>126.2709086630294</v>
       </c>
       <c r="H14" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912297</v>
       </c>
       <c r="I14" t="n">
-        <v>120.3463876521523</v>
+        <v>120.3463876521521</v>
       </c>
       <c r="J14" t="n">
-        <v>280.566872447263</v>
+        <v>280.5668724472624</v>
       </c>
       <c r="K14" t="n">
-        <v>520.695846279055</v>
+        <v>520.6958462790543</v>
       </c>
       <c r="L14" t="n">
-        <v>818.5970719737418</v>
+        <v>818.5970719737409</v>
       </c>
       <c r="M14" t="n">
-        <v>1150.069584980171</v>
+        <v>1150.06958498017</v>
       </c>
       <c r="N14" t="n">
-        <v>1486.905669790888</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O14" t="n">
-        <v>1804.970433130816</v>
+        <v>1804.970433130814</v>
       </c>
       <c r="P14" t="n">
-        <v>2076.431349953071</v>
+        <v>2076.431349953069</v>
       </c>
       <c r="Q14" t="n">
-        <v>2280.287193219311</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R14" t="n">
-        <v>2398.868615956151</v>
+        <v>2398.868615956148</v>
       </c>
       <c r="S14" t="n">
-        <v>2398.868615956151</v>
+        <v>2359.107284025645</v>
       </c>
       <c r="T14" t="n">
-        <v>2398.868615956151</v>
+        <v>2147.471470924113</v>
       </c>
       <c r="U14" t="n">
-        <v>2398.868615956151</v>
+        <v>2147.471470924113</v>
       </c>
       <c r="V14" t="n">
-        <v>2398.868615956151</v>
+        <v>1784.85452085794</v>
       </c>
       <c r="W14" t="n">
-        <v>1994.013161367184</v>
+        <v>1379.999066268973</v>
       </c>
       <c r="X14" t="n">
-        <v>1745.001083222232</v>
+        <v>960.8566028482838</v>
       </c>
       <c r="Y14" t="n">
-        <v>1745.001083222232</v>
+        <v>552.5704791479372</v>
       </c>
     </row>
     <row r="15">
@@ -5348,31 +5348,31 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G15" t="n">
-        <v>79.76014376868005</v>
+        <v>79.76014376868002</v>
       </c>
       <c r="H15" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912297</v>
       </c>
       <c r="I15" t="n">
-        <v>55.59900615728537</v>
+        <v>55.59900615728705</v>
       </c>
       <c r="J15" t="n">
-        <v>151.0252292810489</v>
+        <v>151.0252292810505</v>
       </c>
       <c r="K15" t="n">
-        <v>314.1238438647543</v>
+        <v>314.1238438647558</v>
       </c>
       <c r="L15" t="n">
-        <v>533.4300587917268</v>
+        <v>533.4300587917279</v>
       </c>
       <c r="M15" t="n">
-        <v>789.3500676056079</v>
+        <v>789.3500676056088</v>
       </c>
       <c r="N15" t="n">
         <v>1052.04351753904</v>
       </c>
       <c r="O15" t="n">
-        <v>1292.356702896952</v>
+        <v>1292.356702896953</v>
       </c>
       <c r="P15" t="n">
         <v>1485.229220531343</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>510.4981846755573</v>
+        <v>1092.508027734434</v>
       </c>
       <c r="C16" t="n">
-        <v>337.9364731587822</v>
+        <v>919.9463162176586</v>
       </c>
       <c r="D16" t="n">
-        <v>172.0584803603049</v>
+        <v>754.0683234191813</v>
       </c>
       <c r="E16" t="n">
-        <v>47.97737231912301</v>
+        <v>584.3103196699185</v>
       </c>
       <c r="F16" t="n">
-        <v>47.97737231912301</v>
+        <v>407.6032656316747</v>
       </c>
       <c r="G16" t="n">
-        <v>47.97737231912301</v>
+        <v>242.8759637174711</v>
       </c>
       <c r="H16" t="n">
-        <v>47.97737231912301</v>
+        <v>110.6552953410227</v>
       </c>
       <c r="I16" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912297</v>
       </c>
       <c r="J16" t="n">
-        <v>194.4244032063442</v>
+        <v>194.4244032063441</v>
       </c>
       <c r="K16" t="n">
-        <v>567.5632973215136</v>
+        <v>567.5632973215133</v>
       </c>
       <c r="L16" t="n">
-        <v>693.4563887380338</v>
+        <v>1111.666270505995</v>
       </c>
       <c r="M16" t="n">
-        <v>1285.676869303749</v>
+        <v>1244.402883890797</v>
       </c>
       <c r="N16" t="n">
-        <v>1415.25730270318</v>
+        <v>1373.983317290227</v>
       </c>
       <c r="O16" t="n">
-        <v>1692.765776752098</v>
+        <v>1692.765776752096</v>
       </c>
       <c r="P16" t="n">
-        <v>2142.686862247779</v>
+        <v>2142.686862247776</v>
       </c>
       <c r="Q16" t="n">
-        <v>2381.78591478348</v>
+        <v>2381.785914783477</v>
       </c>
       <c r="R16" t="n">
-        <v>2398.868615956151</v>
+        <v>2398.868615956148</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.68394139924</v>
+        <v>2254.683941399237</v>
       </c>
       <c r="T16" t="n">
-        <v>2012.496016233925</v>
+        <v>2012.496016233923</v>
       </c>
       <c r="U16" t="n">
-        <v>1734.110141290302</v>
+        <v>1734.110141290299</v>
       </c>
       <c r="V16" t="n">
-        <v>1447.154633160732</v>
+        <v>1556.353050867129</v>
       </c>
       <c r="W16" t="n">
-        <v>1175.128228747024</v>
+        <v>1284.326646453421</v>
       </c>
       <c r="X16" t="n">
-        <v>929.7364740804362</v>
+        <v>1284.326646453421</v>
       </c>
       <c r="Y16" t="n">
-        <v>702.3168033945444</v>
+        <v>1284.326646453421</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>753.2918476493937</v>
+        <v>1972.569045471241</v>
       </c>
       <c r="C17" t="n">
-        <v>753.2918476493937</v>
+        <v>1534.426572654664</v>
       </c>
       <c r="D17" t="n">
-        <v>317.3820628238383</v>
+        <v>1098.516787829109</v>
       </c>
       <c r="E17" t="n">
-        <v>317.3820628238383</v>
+        <v>664.7420429874037</v>
       </c>
       <c r="F17" t="n">
-        <v>317.3820628238383</v>
+        <v>317.3820628238382</v>
       </c>
       <c r="G17" t="n">
-        <v>317.3820628238383</v>
+        <v>317.3820628238382</v>
       </c>
       <c r="H17" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912297</v>
       </c>
       <c r="I17" t="n">
-        <v>120.3463876521526</v>
+        <v>120.3463876521521</v>
       </c>
       <c r="J17" t="n">
-        <v>280.5668724472631</v>
+        <v>280.5668724472624</v>
       </c>
       <c r="K17" t="n">
-        <v>520.6958462790551</v>
+        <v>520.6958462790543</v>
       </c>
       <c r="L17" t="n">
-        <v>818.597071973742</v>
+        <v>818.5970719737409</v>
       </c>
       <c r="M17" t="n">
-        <v>1150.069584980172</v>
+        <v>1150.06958498017</v>
       </c>
       <c r="N17" t="n">
-        <v>1486.905669790889</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O17" t="n">
-        <v>1804.970433130816</v>
+        <v>1804.970433130814</v>
       </c>
       <c r="P17" t="n">
-        <v>2076.431349953071</v>
+        <v>2076.431349953069</v>
       </c>
       <c r="Q17" t="n">
-        <v>2280.287193219311</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R17" t="n">
-        <v>2398.868615956151</v>
+        <v>2398.868615956148</v>
       </c>
       <c r="S17" t="n">
-        <v>2398.868615956151</v>
+        <v>2398.868615956148</v>
       </c>
       <c r="T17" t="n">
-        <v>2187.232802854619</v>
+        <v>2398.868615956148</v>
       </c>
       <c r="U17" t="n">
-        <v>1939.906715725223</v>
+        <v>2398.868615956148</v>
       </c>
       <c r="V17" t="n">
-        <v>1577.28976565905</v>
+        <v>2398.868615956148</v>
       </c>
       <c r="W17" t="n">
-        <v>1172.434311070083</v>
+        <v>2398.868615956148</v>
       </c>
       <c r="X17" t="n">
-        <v>753.2918476493937</v>
+        <v>2398.868615956148</v>
       </c>
       <c r="Y17" t="n">
-        <v>753.2918476493937</v>
+        <v>2398.868615956148</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>543.1656930669189</v>
       </c>
       <c r="C18" t="n">
-        <v>436.7092319035613</v>
+        <v>436.7092319035612</v>
       </c>
       <c r="D18" t="n">
         <v>341.6189430501145</v>
@@ -5585,31 +5585,31 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G18" t="n">
-        <v>79.76014376868008</v>
+        <v>79.76014376868002</v>
       </c>
       <c r="H18" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912297</v>
       </c>
       <c r="I18" t="n">
-        <v>82.75272404474131</v>
+        <v>82.75272404474121</v>
       </c>
       <c r="J18" t="n">
-        <v>151.0252292810489</v>
+        <v>151.0252292810505</v>
       </c>
       <c r="K18" t="n">
-        <v>314.1238438647543</v>
+        <v>314.1238438647558</v>
       </c>
       <c r="L18" t="n">
-        <v>533.4300587917268</v>
+        <v>533.4300587917279</v>
       </c>
       <c r="M18" t="n">
-        <v>789.3500676056079</v>
+        <v>789.3500676056088</v>
       </c>
       <c r="N18" t="n">
         <v>1052.04351753904</v>
       </c>
       <c r="O18" t="n">
-        <v>1292.356702896952</v>
+        <v>1292.356702896953</v>
       </c>
       <c r="P18" t="n">
         <v>1485.229220531343</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>702.3168033945449</v>
+        <v>754.0683234191813</v>
       </c>
       <c r="C19" t="n">
-        <v>702.3168033945449</v>
+        <v>754.0683234191813</v>
       </c>
       <c r="D19" t="n">
-        <v>536.4388105960676</v>
+        <v>754.0683234191813</v>
       </c>
       <c r="E19" t="n">
-        <v>536.4388105960676</v>
+        <v>584.3103196699185</v>
       </c>
       <c r="F19" t="n">
         <v>407.6032656316747</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8759637174712</v>
+        <v>242.8759637174711</v>
       </c>
       <c r="H19" t="n">
         <v>110.6552953410227</v>
       </c>
       <c r="I19" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912297</v>
       </c>
       <c r="J19" t="n">
-        <v>107.8447180416543</v>
+        <v>194.4244032063441</v>
       </c>
       <c r="K19" t="n">
-        <v>206.2251575856881</v>
+        <v>567.5632973215133</v>
       </c>
       <c r="L19" t="n">
-        <v>750.3281307701694</v>
+        <v>851.276359341674</v>
       </c>
       <c r="M19" t="n">
-        <v>1342.548611335885</v>
+        <v>1443.496839907389</v>
       </c>
       <c r="N19" t="n">
-        <v>1669.107692915715</v>
+        <v>1573.07727330682</v>
       </c>
       <c r="O19" t="n">
-        <v>2208.465445586773</v>
+        <v>1692.765776752096</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.879637112111</v>
+        <v>2142.686862247776</v>
       </c>
       <c r="Q19" t="n">
-        <v>2381.78591478348</v>
+        <v>2381.785914783477</v>
       </c>
       <c r="R19" t="n">
-        <v>2398.868615956151</v>
+        <v>2398.868615956148</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.68394139924</v>
+        <v>2254.683941399237</v>
       </c>
       <c r="T19" t="n">
-        <v>2012.496016233926</v>
+        <v>2012.496016233923</v>
       </c>
       <c r="U19" t="n">
-        <v>1734.110141290302</v>
+        <v>1734.110141290299</v>
       </c>
       <c r="V19" t="n">
-        <v>1447.154633160733</v>
+        <v>1447.15463316073</v>
       </c>
       <c r="W19" t="n">
-        <v>1175.128228747024</v>
+        <v>1175.128228747021</v>
       </c>
       <c r="X19" t="n">
-        <v>929.7364740804367</v>
+        <v>981.4879941050731</v>
       </c>
       <c r="Y19" t="n">
-        <v>702.3168033945449</v>
+        <v>754.0683234191813</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1355.80437480296</v>
+        <v>1513.665250120048</v>
       </c>
       <c r="C20" t="n">
-        <v>917.6619019863833</v>
+        <v>1075.522777303472</v>
       </c>
       <c r="D20" t="n">
-        <v>481.7521171608279</v>
+        <v>909.6195467516201</v>
       </c>
       <c r="E20" t="n">
-        <v>47.97737231912303</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="F20" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912297</v>
       </c>
       <c r="G20" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912297</v>
       </c>
       <c r="H20" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912297</v>
       </c>
       <c r="I20" t="n">
-        <v>120.3463876521526</v>
+        <v>120.3463876521525</v>
       </c>
       <c r="J20" t="n">
-        <v>280.5668724472631</v>
+        <v>280.5668724472624</v>
       </c>
       <c r="K20" t="n">
-        <v>520.6958462790551</v>
+        <v>520.6958462790542</v>
       </c>
       <c r="L20" t="n">
-        <v>818.597071973742</v>
+        <v>818.5970719737406</v>
       </c>
       <c r="M20" t="n">
-        <v>1150.069584980172</v>
+        <v>1150.06958498017</v>
       </c>
       <c r="N20" t="n">
-        <v>1486.905669790889</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O20" t="n">
-        <v>1804.970433130816</v>
+        <v>1804.970433130814</v>
       </c>
       <c r="P20" t="n">
-        <v>2076.431349953071</v>
+        <v>2076.431349953069</v>
       </c>
       <c r="Q20" t="n">
-        <v>2280.287193219311</v>
+        <v>2280.287193219308</v>
       </c>
       <c r="R20" t="n">
-        <v>2398.868615956151</v>
+        <v>2398.868615956148</v>
       </c>
       <c r="S20" t="n">
-        <v>2398.868615956151</v>
+        <v>2359.107284025645</v>
       </c>
       <c r="T20" t="n">
-        <v>2187.232802854619</v>
+        <v>2359.107284025645</v>
       </c>
       <c r="U20" t="n">
-        <v>2187.232802854619</v>
+        <v>2359.107284025645</v>
       </c>
       <c r="V20" t="n">
-        <v>2187.232802854619</v>
+        <v>2359.107284025645</v>
       </c>
       <c r="W20" t="n">
-        <v>2187.232802854619</v>
+        <v>2359.107284025645</v>
       </c>
       <c r="X20" t="n">
-        <v>1768.09033943393</v>
+        <v>1939.964820604956</v>
       </c>
       <c r="Y20" t="n">
-        <v>1768.09033943393</v>
+        <v>1939.964820604956</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>543.1656930669189</v>
       </c>
       <c r="C21" t="n">
-        <v>436.7092319035613</v>
+        <v>436.7092319035612</v>
       </c>
       <c r="D21" t="n">
         <v>341.6189430501145</v>
@@ -5822,31 +5822,31 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G21" t="n">
-        <v>79.76014376868008</v>
+        <v>79.76014376868002</v>
       </c>
       <c r="H21" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912297</v>
       </c>
       <c r="I21" t="n">
-        <v>82.75272404474131</v>
+        <v>55.59900615728705</v>
       </c>
       <c r="J21" t="n">
-        <v>151.0252292810489</v>
+        <v>151.0252292810505</v>
       </c>
       <c r="K21" t="n">
-        <v>314.1238438647543</v>
+        <v>314.1238438647558</v>
       </c>
       <c r="L21" t="n">
-        <v>533.4300587917268</v>
+        <v>533.4300587917279</v>
       </c>
       <c r="M21" t="n">
-        <v>789.3500676056079</v>
+        <v>789.3500676056088</v>
       </c>
       <c r="N21" t="n">
         <v>1052.04351753904</v>
       </c>
       <c r="O21" t="n">
-        <v>1292.356702896952</v>
+        <v>1292.356702896953</v>
       </c>
       <c r="P21" t="n">
         <v>1485.229220531343</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.3447990490677</v>
+        <v>727.8514325868226</v>
       </c>
       <c r="C22" t="n">
-        <v>522.7830875322926</v>
+        <v>555.2897210700476</v>
       </c>
       <c r="D22" t="n">
-        <v>356.9050947338153</v>
+        <v>389.4117282715703</v>
       </c>
       <c r="E22" t="n">
-        <v>356.9050947338153</v>
+        <v>389.4117282715703</v>
       </c>
       <c r="F22" t="n">
-        <v>180.1980406955715</v>
+        <v>212.7046742333265</v>
       </c>
       <c r="G22" t="n">
-        <v>180.1980406955715</v>
+        <v>47.97737231912297</v>
       </c>
       <c r="H22" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912297</v>
       </c>
       <c r="I22" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912297</v>
       </c>
       <c r="J22" t="n">
-        <v>194.4244032063442</v>
+        <v>194.4244032063441</v>
       </c>
       <c r="K22" t="n">
-        <v>567.5632973215136</v>
+        <v>567.5632973215133</v>
       </c>
       <c r="L22" t="n">
-        <v>891.0909772968079</v>
+        <v>756.5244501543712</v>
       </c>
       <c r="M22" t="n">
-        <v>1023.82759068161</v>
+        <v>1348.744930720086</v>
       </c>
       <c r="N22" t="n">
-        <v>1153.408024081041</v>
+        <v>1920.584167277161</v>
       </c>
       <c r="O22" t="n">
-        <v>1692.765776752099</v>
+        <v>2040.272670722438</v>
       </c>
       <c r="P22" t="n">
-        <v>2142.686862247779</v>
+        <v>2142.686862247776</v>
       </c>
       <c r="Q22" t="n">
-        <v>2381.78591478348</v>
+        <v>2381.785914783477</v>
       </c>
       <c r="R22" t="n">
-        <v>2398.868615956151</v>
+        <v>2398.868615956148</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.68394139924</v>
+        <v>2254.683941399237</v>
       </c>
       <c r="T22" t="n">
-        <v>2012.496016233926</v>
+        <v>2012.496016233923</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.110141290302</v>
+        <v>1734.110141290299</v>
       </c>
       <c r="V22" t="n">
-        <v>1447.154633160733</v>
+        <v>1447.15463316073</v>
       </c>
       <c r="W22" t="n">
-        <v>1175.128228747024</v>
+        <v>1175.128228747021</v>
       </c>
       <c r="X22" t="n">
-        <v>1114.583088453947</v>
+        <v>1147.089721991701</v>
       </c>
       <c r="Y22" t="n">
-        <v>887.1634177680548</v>
+        <v>919.6700513058097</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1777.236350628198</v>
+        <v>2074.004725877358</v>
       </c>
       <c r="C23" t="n">
-        <v>1339.093877811621</v>
+        <v>1635.862253060781</v>
       </c>
       <c r="D23" t="n">
-        <v>903.1840929860655</v>
+        <v>1199.952468235226</v>
       </c>
       <c r="E23" t="n">
-        <v>469.4093481443606</v>
+        <v>766.1777233935209</v>
       </c>
       <c r="F23" t="n">
-        <v>329.259814722999</v>
+        <v>459.3268758633398</v>
       </c>
       <c r="G23" t="n">
-        <v>329.259814722999</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="H23" t="n">
         <v>59.85512421828376</v>
@@ -5989,22 +5989,22 @@
         <v>132.2241395513133</v>
       </c>
       <c r="J23" t="n">
-        <v>705.3004026522432</v>
+        <v>705.3004026522451</v>
       </c>
       <c r="K23" t="n">
-        <v>945.4293764840351</v>
+        <v>945.4293764840369</v>
       </c>
       <c r="L23" t="n">
-        <v>1243.330602178722</v>
+        <v>1243.330602178723</v>
       </c>
       <c r="M23" t="n">
-        <v>1574.803115185152</v>
+        <v>1574.803115185153</v>
       </c>
       <c r="N23" t="n">
-        <v>1911.639199995868</v>
+        <v>1911.639199995869</v>
       </c>
       <c r="O23" t="n">
-        <v>2229.703963335796</v>
+        <v>2229.703963335797</v>
       </c>
       <c r="P23" t="n">
         <v>2501.164880158052</v>
@@ -6019,22 +6019,22 @@
         <v>2952.994878983685</v>
       </c>
       <c r="T23" t="n">
-        <v>2952.994878983685</v>
+        <v>2741.359065882153</v>
       </c>
       <c r="U23" t="n">
-        <v>2952.994878983685</v>
+        <v>2482.290849577705</v>
       </c>
       <c r="V23" t="n">
-        <v>2590.377928917511</v>
+        <v>2482.290849577705</v>
       </c>
       <c r="W23" t="n">
-        <v>2185.522474328544</v>
+        <v>2482.290849577705</v>
       </c>
       <c r="X23" t="n">
-        <v>2185.522474328544</v>
+        <v>2482.290849577705</v>
       </c>
       <c r="Y23" t="n">
-        <v>1777.236350628198</v>
+        <v>2074.004725877358</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>59.85512421828376</v>
       </c>
       <c r="I24" t="n">
-        <v>67.47675805644636</v>
+        <v>94.63047594390201</v>
       </c>
       <c r="J24" t="n">
-        <v>162.9029811802098</v>
+        <v>190.0566990676654</v>
       </c>
       <c r="K24" t="n">
-        <v>326.0015957639153</v>
+        <v>353.1553136513708</v>
       </c>
       <c r="L24" t="n">
-        <v>545.3078106908877</v>
+        <v>572.4615285783428</v>
       </c>
       <c r="M24" t="n">
-        <v>801.2278195047688</v>
+        <v>828.3815373922238</v>
       </c>
       <c r="N24" t="n">
-        <v>1063.9212694382</v>
+        <v>1091.074987325655</v>
       </c>
       <c r="O24" t="n">
-        <v>1304.234454796113</v>
+        <v>1331.388172683568</v>
       </c>
       <c r="P24" t="n">
-        <v>1497.106972430504</v>
+        <v>1524.260690317959</v>
       </c>
       <c r="Q24" t="n">
         <v>1626.037142700873</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1104.385779633595</v>
+        <v>1104.385779633594</v>
       </c>
       <c r="C25" t="n">
-        <v>931.8240681168196</v>
+        <v>931.824068116819</v>
       </c>
       <c r="D25" t="n">
-        <v>765.9460753183423</v>
+        <v>765.9460753183419</v>
       </c>
       <c r="E25" t="n">
-        <v>596.1880715690792</v>
+        <v>596.1880715690791</v>
       </c>
       <c r="F25" t="n">
-        <v>419.4810175308354</v>
+        <v>419.4810175308355</v>
       </c>
       <c r="G25" t="n">
-        <v>254.7537156166319</v>
+        <v>254.753715616632</v>
       </c>
       <c r="H25" t="n">
-        <v>122.5330472401834</v>
+        <v>122.5330472401835</v>
       </c>
       <c r="I25" t="n">
         <v>59.85512421828376</v>
@@ -6150,19 +6150,19 @@
         <v>206.3021551055049</v>
       </c>
       <c r="K25" t="n">
-        <v>579.4410492206741</v>
+        <v>457.3428104997672</v>
       </c>
       <c r="L25" t="n">
-        <v>1123.544022405155</v>
+        <v>583.2359019162873</v>
       </c>
       <c r="M25" t="n">
-        <v>1715.764502970871</v>
+        <v>1175.456382482002</v>
       </c>
       <c r="N25" t="n">
-        <v>2094.802513009419</v>
+        <v>1747.295619039077</v>
       </c>
       <c r="O25" t="n">
-        <v>2634.160265680477</v>
+        <v>2286.653371710135</v>
       </c>
       <c r="P25" t="n">
         <v>2736.574457205816</v>
@@ -6183,16 +6183,16 @@
         <v>2327.997736248339</v>
       </c>
       <c r="V25" t="n">
-        <v>2041.04222811877</v>
+        <v>2041.042228118769</v>
       </c>
       <c r="W25" t="n">
-        <v>1769.015823705061</v>
+        <v>1769.01582370506</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.624069038474</v>
+        <v>1523.624069038473</v>
       </c>
       <c r="Y25" t="n">
-        <v>1296.204398352582</v>
+        <v>1296.204398352581</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2371.071044543566</v>
+        <v>1294.411266788774</v>
       </c>
       <c r="C26" t="n">
-        <v>2026.283525626108</v>
+        <v>856.2687939721977</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.373740800552</v>
+        <v>856.2687939721977</v>
       </c>
       <c r="E26" t="n">
-        <v>1156.598995958847</v>
+        <v>422.4940491304929</v>
       </c>
       <c r="F26" t="n">
-        <v>728.731566368055</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="G26" t="n">
-        <v>329.259814722999</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="H26" t="n">
         <v>59.85512421828376</v>
@@ -6226,22 +6226,22 @@
         <v>132.2241395513133</v>
       </c>
       <c r="J26" t="n">
-        <v>705.3004026522432</v>
+        <v>705.3004026522451</v>
       </c>
       <c r="K26" t="n">
-        <v>945.4293764840351</v>
+        <v>945.4293764840369</v>
       </c>
       <c r="L26" t="n">
-        <v>1243.330602178722</v>
+        <v>1243.330602178723</v>
       </c>
       <c r="M26" t="n">
-        <v>1574.803115185152</v>
+        <v>1574.803115185153</v>
       </c>
       <c r="N26" t="n">
-        <v>1911.639199995868</v>
+        <v>1911.639199995869</v>
       </c>
       <c r="O26" t="n">
-        <v>2229.703963335796</v>
+        <v>2229.703963335797</v>
       </c>
       <c r="P26" t="n">
         <v>2501.164880158052</v>
@@ -6253,25 +6253,25 @@
         <v>2992.756210914188</v>
       </c>
       <c r="S26" t="n">
-        <v>2992.756210914188</v>
+        <v>2952.994878983685</v>
       </c>
       <c r="T26" t="n">
-        <v>2992.756210914188</v>
+        <v>2952.994878983685</v>
       </c>
       <c r="U26" t="n">
-        <v>2733.68799460974</v>
+        <v>2952.994878983685</v>
       </c>
       <c r="V26" t="n">
-        <v>2371.071044543566</v>
+        <v>2952.994878983685</v>
       </c>
       <c r="W26" t="n">
-        <v>2371.071044543566</v>
+        <v>2548.139424394718</v>
       </c>
       <c r="X26" t="n">
-        <v>2371.071044543566</v>
+        <v>2128.996960974029</v>
       </c>
       <c r="Y26" t="n">
-        <v>2371.071044543566</v>
+        <v>1720.710837273682</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>59.85512421828376</v>
       </c>
       <c r="I27" t="n">
-        <v>67.47675805644636</v>
+        <v>67.47675805644769</v>
       </c>
       <c r="J27" t="n">
-        <v>162.9029811802098</v>
+        <v>162.9029811802111</v>
       </c>
       <c r="K27" t="n">
-        <v>326.0015957639153</v>
+        <v>326.0015957639164</v>
       </c>
       <c r="L27" t="n">
-        <v>545.3078106908877</v>
+        <v>545.3078106908886</v>
       </c>
       <c r="M27" t="n">
-        <v>801.2278195047688</v>
+        <v>801.2278195047695</v>
       </c>
       <c r="N27" t="n">
-        <v>1063.9212694382</v>
+        <v>1063.921269438201</v>
       </c>
       <c r="O27" t="n">
         <v>1304.234454796113</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1104.385779633595</v>
+        <v>1104.385779633594</v>
       </c>
       <c r="C28" t="n">
-        <v>931.8240681168196</v>
+        <v>931.8240681168194</v>
       </c>
       <c r="D28" t="n">
-        <v>765.9460753183423</v>
+        <v>765.9460753183421</v>
       </c>
       <c r="E28" t="n">
-        <v>596.1880715690795</v>
+        <v>596.1880715690793</v>
       </c>
       <c r="F28" t="n">
-        <v>419.4810175308357</v>
+        <v>419.4810175308355</v>
       </c>
       <c r="G28" t="n">
         <v>254.7537156166319</v>
       </c>
       <c r="H28" t="n">
-        <v>122.5330472401834</v>
+        <v>122.5330472401835</v>
       </c>
       <c r="I28" t="n">
         <v>59.85512421828376</v>
@@ -6393,7 +6393,7 @@
         <v>1123.544022405155</v>
       </c>
       <c r="M28" t="n">
-        <v>1256.280635789958</v>
+        <v>1256.280635789957</v>
       </c>
       <c r="N28" t="n">
         <v>1747.295619039077</v>
@@ -6402,7 +6402,7 @@
         <v>2286.653371710135</v>
       </c>
       <c r="P28" t="n">
-        <v>2736.574457205816</v>
+        <v>2736.574457205815</v>
       </c>
       <c r="Q28" t="n">
         <v>2975.673509741517</v>
@@ -6414,19 +6414,19 @@
         <v>2848.571536357277</v>
       </c>
       <c r="T28" t="n">
-        <v>2606.383611191963</v>
+        <v>2606.383611191962</v>
       </c>
       <c r="U28" t="n">
         <v>2327.997736248339</v>
       </c>
       <c r="V28" t="n">
-        <v>2041.04222811877</v>
+        <v>2041.042228118769</v>
       </c>
       <c r="W28" t="n">
         <v>1769.015823705061</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.624069038474</v>
+        <v>1523.624069038473</v>
       </c>
       <c r="Y28" t="n">
         <v>1296.204398352582</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>728.731566368055</v>
+        <v>2464.425998442684</v>
       </c>
       <c r="C29" t="n">
-        <v>728.731566368055</v>
+        <v>2026.283525626108</v>
       </c>
       <c r="D29" t="n">
-        <v>728.731566368055</v>
+        <v>1590.373740800552</v>
       </c>
       <c r="E29" t="n">
-        <v>728.731566368055</v>
+        <v>1156.598995958847</v>
       </c>
       <c r="F29" t="n">
         <v>728.731566368055</v>
@@ -6463,52 +6463,52 @@
         <v>132.2241395513133</v>
       </c>
       <c r="J29" t="n">
-        <v>727.6993117993419</v>
+        <v>727.6993117993417</v>
       </c>
       <c r="K29" t="n">
-        <v>967.8282856311338</v>
+        <v>967.8282856311333</v>
       </c>
       <c r="L29" t="n">
-        <v>1265.729511325821</v>
+        <v>1265.72951132582</v>
       </c>
       <c r="M29" t="n">
-        <v>1597.20202433225</v>
+        <v>1597.202024332249</v>
       </c>
       <c r="N29" t="n">
-        <v>1934.038109142967</v>
+        <v>1934.038109142966</v>
       </c>
       <c r="O29" t="n">
-        <v>2252.102872482895</v>
+        <v>2252.102872482893</v>
       </c>
       <c r="P29" t="n">
-        <v>2523.56378930515</v>
+        <v>2523.563789305148</v>
       </c>
       <c r="Q29" t="n">
-        <v>2727.41963257139</v>
+        <v>2727.419632571387</v>
       </c>
       <c r="R29" t="n">
         <v>2992.756210914188</v>
       </c>
       <c r="S29" t="n">
-        <v>2952.994878983685</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="T29" t="n">
-        <v>2741.359065882153</v>
+        <v>2781.120397812656</v>
       </c>
       <c r="U29" t="n">
-        <v>2482.290849577705</v>
+        <v>2781.120397812656</v>
       </c>
       <c r="V29" t="n">
-        <v>2119.673899511531</v>
+        <v>2781.120397812656</v>
       </c>
       <c r="W29" t="n">
-        <v>1714.818444922564</v>
+        <v>2781.120397812656</v>
       </c>
       <c r="X29" t="n">
-        <v>1295.675981501875</v>
+        <v>2781.120397812656</v>
       </c>
       <c r="Y29" t="n">
-        <v>887.3898578015284</v>
+        <v>2781.120397812656</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>59.85512421828376</v>
       </c>
       <c r="I30" t="n">
-        <v>67.47675805644636</v>
+        <v>94.63047594390201</v>
       </c>
       <c r="J30" t="n">
-        <v>162.9029811802098</v>
+        <v>190.0566990676654</v>
       </c>
       <c r="K30" t="n">
-        <v>326.0015957639153</v>
+        <v>353.1553136513708</v>
       </c>
       <c r="L30" t="n">
-        <v>545.3078106908877</v>
+        <v>572.4615285783428</v>
       </c>
       <c r="M30" t="n">
-        <v>801.2278195047688</v>
+        <v>828.3815373922238</v>
       </c>
       <c r="N30" t="n">
-        <v>1063.9212694382</v>
+        <v>1091.074987325655</v>
       </c>
       <c r="O30" t="n">
-        <v>1304.234454796113</v>
+        <v>1331.388172683568</v>
       </c>
       <c r="P30" t="n">
-        <v>1497.106972430504</v>
+        <v>1524.260690317959</v>
       </c>
       <c r="Q30" t="n">
-        <v>1626.037142700873</v>
+        <v>1653.190860588327</v>
       </c>
       <c r="R30" t="n">
         <v>1688.747955315886</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1104.385779633595</v>
+        <v>1104.385779633594</v>
       </c>
       <c r="C31" t="n">
-        <v>931.8240681168196</v>
+        <v>931.824068116819</v>
       </c>
       <c r="D31" t="n">
         <v>765.9460753183419</v>
       </c>
       <c r="E31" t="n">
-        <v>596.1880715690792</v>
+        <v>596.1880715690791</v>
       </c>
       <c r="F31" t="n">
         <v>419.4810175308354</v>
       </c>
       <c r="G31" t="n">
-        <v>254.7537156166319</v>
+        <v>254.7537156166318</v>
       </c>
       <c r="H31" t="n">
-        <v>122.5330472401834</v>
+        <v>122.5330472401833</v>
       </c>
       <c r="I31" t="n">
         <v>59.85512421828376</v>
       </c>
       <c r="J31" t="n">
-        <v>206.3021551055049</v>
+        <v>119.722469940815</v>
       </c>
       <c r="K31" t="n">
-        <v>304.6825946495387</v>
+        <v>218.1029094848487</v>
       </c>
       <c r="L31" t="n">
-        <v>583.2359019162869</v>
+        <v>762.2058826693299</v>
       </c>
       <c r="M31" t="n">
-        <v>1175.456382482002</v>
+        <v>1354.426363235045</v>
       </c>
       <c r="N31" t="n">
-        <v>1747.295619039077</v>
+        <v>1926.26559979212</v>
       </c>
       <c r="O31" t="n">
-        <v>2286.653371710135</v>
+        <v>2465.623352463178</v>
       </c>
       <c r="P31" t="n">
-        <v>2736.574457205816</v>
+        <v>2904.767232070148</v>
       </c>
       <c r="Q31" t="n">
         <v>2975.673509741517</v>
@@ -6657,16 +6657,16 @@
         <v>2327.997736248339</v>
       </c>
       <c r="V31" t="n">
-        <v>2041.04222811877</v>
+        <v>2041.042228118769</v>
       </c>
       <c r="W31" t="n">
-        <v>1769.015823705061</v>
+        <v>1769.01582370506</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.624069038474</v>
+        <v>1523.624069038473</v>
       </c>
       <c r="Y31" t="n">
-        <v>1296.204398352582</v>
+        <v>1296.204398352581</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.153878347177</v>
+        <v>1602.783824010187</v>
       </c>
       <c r="C32" t="n">
-        <v>1329.0114055306</v>
+        <v>1164.64135119361</v>
       </c>
       <c r="D32" t="n">
-        <v>893.1016207050446</v>
+        <v>728.731566368055</v>
       </c>
       <c r="E32" t="n">
-        <v>459.3268758633398</v>
+        <v>728.731566368055</v>
       </c>
       <c r="F32" t="n">
-        <v>459.3268758633398</v>
+        <v>728.731566368055</v>
       </c>
       <c r="G32" t="n">
-        <v>59.85512421828376</v>
+        <v>329.259814722999</v>
       </c>
       <c r="H32" t="n">
         <v>59.85512421828376</v>
@@ -6700,28 +6700,28 @@
         <v>132.2241395513133</v>
       </c>
       <c r="J32" t="n">
-        <v>292.444624346424</v>
+        <v>727.6993117993417</v>
       </c>
       <c r="K32" t="n">
-        <v>532.5735981782159</v>
+        <v>967.8282856311333</v>
       </c>
       <c r="L32" t="n">
-        <v>830.4748238729027</v>
+        <v>1265.72951132582</v>
       </c>
       <c r="M32" t="n">
-        <v>1571.181986074164</v>
+        <v>1597.202024332249</v>
       </c>
       <c r="N32" t="n">
-        <v>2080.793264748925</v>
+        <v>1934.038109142966</v>
       </c>
       <c r="O32" t="n">
-        <v>2398.858028088853</v>
+        <v>2252.102872482893</v>
       </c>
       <c r="P32" t="n">
-        <v>2670.318944911109</v>
+        <v>2523.563789305148</v>
       </c>
       <c r="Q32" t="n">
-        <v>2874.174788177348</v>
+        <v>2727.419632571387</v>
       </c>
       <c r="R32" t="n">
         <v>2992.756210914188</v>
@@ -6730,22 +6730,22 @@
         <v>2992.756210914188</v>
       </c>
       <c r="T32" t="n">
-        <v>2781.120397812656</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="U32" t="n">
-        <v>2781.120397812656</v>
+        <v>2733.68799460974</v>
       </c>
       <c r="V32" t="n">
-        <v>2418.503447746483</v>
+        <v>2371.071044543566</v>
       </c>
       <c r="W32" t="n">
-        <v>2013.647993157516</v>
+        <v>2371.071044543566</v>
       </c>
       <c r="X32" t="n">
-        <v>2013.647993157516</v>
+        <v>2011.069947710534</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.153878347177</v>
+        <v>1602.783824010187</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>59.85512421828376</v>
       </c>
       <c r="I33" t="n">
-        <v>94.63047594390206</v>
+        <v>94.63047594390201</v>
       </c>
       <c r="J33" t="n">
-        <v>190.0566990676655</v>
+        <v>162.9029811802111</v>
       </c>
       <c r="K33" t="n">
-        <v>353.155313651371</v>
+        <v>326.0015957639164</v>
       </c>
       <c r="L33" t="n">
-        <v>572.4615285783433</v>
+        <v>545.3078106908886</v>
       </c>
       <c r="M33" t="n">
-        <v>828.3815373922245</v>
+        <v>801.2278195047695</v>
       </c>
       <c r="N33" t="n">
-        <v>1091.074987325656</v>
+        <v>1063.921269438201</v>
       </c>
       <c r="O33" t="n">
-        <v>1331.388172683569</v>
+        <v>1304.234454796113</v>
       </c>
       <c r="P33" t="n">
-        <v>1524.26069031796</v>
+        <v>1497.106972430504</v>
       </c>
       <c r="Q33" t="n">
         <v>1626.037142700873</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1104.385779633595</v>
+        <v>1104.385779633594</v>
       </c>
       <c r="C34" t="n">
-        <v>931.8240681168195</v>
+        <v>931.824068116819</v>
       </c>
       <c r="D34" t="n">
-        <v>765.9460753183423</v>
+        <v>765.9460753183419</v>
       </c>
       <c r="E34" t="n">
-        <v>596.1880715690795</v>
+        <v>596.1880715690791</v>
       </c>
       <c r="F34" t="n">
-        <v>419.4810175308357</v>
+        <v>419.4810175308355</v>
       </c>
       <c r="G34" t="n">
-        <v>254.7537156166318</v>
+        <v>254.753715616632</v>
       </c>
       <c r="H34" t="n">
-        <v>122.5330472401834</v>
+        <v>122.5330472401835</v>
       </c>
       <c r="I34" t="n">
         <v>59.85512421828376</v>
       </c>
       <c r="J34" t="n">
-        <v>206.3021551055049</v>
+        <v>119.722469940815</v>
       </c>
       <c r="K34" t="n">
-        <v>304.6825946495387</v>
+        <v>218.1029094848487</v>
       </c>
       <c r="L34" t="n">
-        <v>848.7855678340198</v>
+        <v>751.4286767806201</v>
       </c>
       <c r="M34" t="n">
-        <v>1441.006048399735</v>
+        <v>1343.649157346335</v>
       </c>
       <c r="N34" t="n">
-        <v>2012.84528495681</v>
+        <v>1915.48839390341</v>
       </c>
       <c r="O34" t="n">
-        <v>2552.203037627868</v>
+        <v>2454.846146574468</v>
       </c>
       <c r="P34" t="n">
-        <v>2736.574457205816</v>
+        <v>2904.767232070148</v>
       </c>
       <c r="Q34" t="n">
         <v>2975.673509741517</v>
@@ -6894,16 +6894,16 @@
         <v>2327.997736248339</v>
       </c>
       <c r="V34" t="n">
-        <v>2041.04222811877</v>
+        <v>2041.042228118769</v>
       </c>
       <c r="W34" t="n">
-        <v>1769.015823705061</v>
+        <v>1769.01582370506</v>
       </c>
       <c r="X34" t="n">
         <v>1523.624069038473</v>
       </c>
       <c r="Y34" t="n">
-        <v>1296.204398352582</v>
+        <v>1296.204398352581</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2183.143556038809</v>
+        <v>1349.897059552047</v>
       </c>
       <c r="C35" t="n">
-        <v>1745.001083222232</v>
+        <v>911.7545867354708</v>
       </c>
       <c r="D35" t="n">
-        <v>1309.091298396676</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="E35" t="n">
-        <v>875.3165535549713</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="F35" t="n">
-        <v>447.449123964179</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="G35" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H35" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I35" t="n">
-        <v>120.3463876521523</v>
+        <v>120.3463876521525</v>
       </c>
       <c r="J35" t="n">
         <v>280.566872447263</v>
       </c>
       <c r="K35" t="n">
-        <v>520.695846279055</v>
+        <v>520.6958462790549</v>
       </c>
       <c r="L35" t="n">
-        <v>818.5970719737418</v>
+        <v>818.5970719737414</v>
       </c>
       <c r="M35" t="n">
         <v>1150.069584980171</v>
       </c>
       <c r="N35" t="n">
-        <v>1486.905669790888</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O35" t="n">
-        <v>1804.970433130816</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P35" t="n">
-        <v>2076.431349953071</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q35" t="n">
-        <v>2280.287193219311</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R35" t="n">
-        <v>2398.868615956151</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S35" t="n">
-        <v>2398.868615956151</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="T35" t="n">
-        <v>2398.868615956151</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="U35" t="n">
-        <v>2183.143556038809</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="V35" t="n">
-        <v>2183.143556038809</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="W35" t="n">
-        <v>2183.143556038809</v>
+        <v>1954.251829436679</v>
       </c>
       <c r="X35" t="n">
-        <v>2183.143556038809</v>
+        <v>1758.183183252394</v>
       </c>
       <c r="Y35" t="n">
-        <v>2183.143556038809</v>
+        <v>1349.897059552047</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>79.76014376868005</v>
       </c>
       <c r="H36" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I36" t="n">
-        <v>55.59900615728537</v>
+        <v>82.75272404474124</v>
       </c>
       <c r="J36" t="n">
-        <v>151.0252292810489</v>
+        <v>178.1789471685047</v>
       </c>
       <c r="K36" t="n">
-        <v>314.1238438647543</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L36" t="n">
-        <v>533.4300587917268</v>
+        <v>560.5837766791823</v>
       </c>
       <c r="M36" t="n">
-        <v>789.3500676056079</v>
+        <v>816.5037854930632</v>
       </c>
       <c r="N36" t="n">
-        <v>1052.04351753904</v>
+        <v>1079.197235426495</v>
       </c>
       <c r="O36" t="n">
-        <v>1292.356702896952</v>
+        <v>1292.356702896953</v>
       </c>
       <c r="P36" t="n">
         <v>1485.229220531343</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.8514325868227</v>
+        <v>521.6323966480188</v>
       </c>
       <c r="C37" t="n">
-        <v>555.2897210700477</v>
+        <v>521.6323966480188</v>
       </c>
       <c r="D37" t="n">
-        <v>389.4117282715704</v>
+        <v>521.6323966480188</v>
       </c>
       <c r="E37" t="n">
-        <v>389.4117282715704</v>
+        <v>521.6323966480188</v>
       </c>
       <c r="F37" t="n">
-        <v>212.7046742333266</v>
+        <v>344.925342609775</v>
       </c>
       <c r="G37" t="n">
-        <v>47.97737231912301</v>
+        <v>180.1980406955714</v>
       </c>
       <c r="H37" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I37" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J37" t="n">
-        <v>194.4244032063442</v>
+        <v>107.8447180416543</v>
       </c>
       <c r="K37" t="n">
-        <v>567.5632973215136</v>
+        <v>346.9880041123252</v>
       </c>
       <c r="L37" t="n">
-        <v>693.4563887380338</v>
+        <v>891.0909772968064</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.676869303749</v>
+        <v>1023.827590681609</v>
       </c>
       <c r="N37" t="n">
-        <v>1857.516105860824</v>
+        <v>1153.408024081039</v>
       </c>
       <c r="O37" t="n">
-        <v>1977.204609306101</v>
+        <v>1692.765776752097</v>
       </c>
       <c r="P37" t="n">
-        <v>2142.686862247779</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q37" t="n">
-        <v>2381.78591478348</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R37" t="n">
-        <v>2398.868615956151</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.68394139924</v>
+        <v>2254.683941399238</v>
       </c>
       <c r="T37" t="n">
-        <v>2012.496016233925</v>
+        <v>2012.496016233924</v>
       </c>
       <c r="U37" t="n">
-        <v>1951.463389201567</v>
+        <v>1734.1101412903</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.507881071998</v>
+        <v>1447.154633160731</v>
       </c>
       <c r="W37" t="n">
-        <v>1392.481476658289</v>
+        <v>1175.128228747022</v>
       </c>
       <c r="X37" t="n">
-        <v>1147.089721991702</v>
+        <v>929.7364740804348</v>
       </c>
       <c r="Y37" t="n">
-        <v>919.6700513058099</v>
+        <v>702.3168033945431</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1469.260791198978</v>
+        <v>1525.786304553492</v>
       </c>
       <c r="C38" t="n">
-        <v>1031.118318382402</v>
+        <v>1087.643831736915</v>
       </c>
       <c r="D38" t="n">
-        <v>595.2085335568463</v>
+        <v>1087.643831736915</v>
       </c>
       <c r="E38" t="n">
-        <v>161.4337887151415</v>
+        <v>1087.643831736915</v>
       </c>
       <c r="F38" t="n">
-        <v>161.4337887151415</v>
+        <v>716.8538144688943</v>
       </c>
       <c r="G38" t="n">
-        <v>47.97737231912303</v>
+        <v>317.3820628238382</v>
       </c>
       <c r="H38" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I38" t="n">
-        <v>120.3463876521526</v>
+        <v>120.3463876521525</v>
       </c>
       <c r="J38" t="n">
-        <v>280.5668724472633</v>
+        <v>280.566872447263</v>
       </c>
       <c r="K38" t="n">
-        <v>520.6958462790553</v>
+        <v>520.6958462790549</v>
       </c>
       <c r="L38" t="n">
-        <v>818.5970719737421</v>
+        <v>818.5970719737413</v>
       </c>
       <c r="M38" t="n">
-        <v>1150.069584980172</v>
+        <v>1150.069584980171</v>
       </c>
       <c r="N38" t="n">
-        <v>1486.905669790889</v>
+        <v>1486.905669790888</v>
       </c>
       <c r="O38" t="n">
-        <v>1804.970433130816</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P38" t="n">
-        <v>2076.431349953072</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q38" t="n">
-        <v>2280.287193219312</v>
+        <v>2280.28719321931</v>
       </c>
       <c r="R38" t="n">
-        <v>2398.868615956152</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S38" t="n">
-        <v>2359.107284025648</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="T38" t="n">
-        <v>2147.471470924117</v>
+        <v>2147.471470924114</v>
       </c>
       <c r="U38" t="n">
-        <v>1888.403254619668</v>
+        <v>1888.403254619666</v>
       </c>
       <c r="V38" t="n">
-        <v>1888.403254619668</v>
+        <v>1525.786304553492</v>
       </c>
       <c r="W38" t="n">
-        <v>1888.403254619668</v>
+        <v>1525.786304553492</v>
       </c>
       <c r="X38" t="n">
-        <v>1469.260791198978</v>
+        <v>1525.786304553492</v>
       </c>
       <c r="Y38" t="n">
-        <v>1469.260791198978</v>
+        <v>1525.786304553492</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>543.1656930669189</v>
       </c>
       <c r="C39" t="n">
-        <v>436.7092319035613</v>
+        <v>436.7092319035612</v>
       </c>
       <c r="D39" t="n">
         <v>341.6189430501145</v>
@@ -7244,37 +7244,37 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G39" t="n">
-        <v>79.76014376868008</v>
+        <v>79.76014376868005</v>
       </c>
       <c r="H39" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I39" t="n">
-        <v>55.59900615728498</v>
+        <v>82.75272404474124</v>
       </c>
       <c r="J39" t="n">
-        <v>151.0252292810485</v>
+        <v>178.1789471685047</v>
       </c>
       <c r="K39" t="n">
-        <v>314.123843864754</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L39" t="n">
-        <v>533.4300587917264</v>
+        <v>560.5837766791823</v>
       </c>
       <c r="M39" t="n">
-        <v>789.3500676056076</v>
+        <v>816.5037854930632</v>
       </c>
       <c r="N39" t="n">
-        <v>1052.043517539039</v>
+        <v>1079.197235426495</v>
       </c>
       <c r="O39" t="n">
-        <v>1292.356702896952</v>
+        <v>1319.510420784407</v>
       </c>
       <c r="P39" t="n">
-        <v>1485.229220531343</v>
+        <v>1512.382938418798</v>
       </c>
       <c r="Q39" t="n">
-        <v>1614.159390801712</v>
+        <v>1641.313108689166</v>
       </c>
       <c r="R39" t="n">
         <v>1676.870203416725</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.8821344218819</v>
+        <v>521.6323966480188</v>
       </c>
       <c r="C40" t="n">
-        <v>560.3204229051069</v>
+        <v>521.6323966480188</v>
       </c>
       <c r="D40" t="n">
-        <v>394.4424301066296</v>
+        <v>521.6323966480188</v>
       </c>
       <c r="E40" t="n">
-        <v>224.6844263573668</v>
+        <v>521.6323966480188</v>
       </c>
       <c r="F40" t="n">
-        <v>47.97737231912303</v>
+        <v>344.925342609775</v>
       </c>
       <c r="G40" t="n">
-        <v>47.97737231912303</v>
+        <v>180.1980406955714</v>
       </c>
       <c r="H40" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I40" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J40" t="n">
-        <v>107.8447180416544</v>
+        <v>107.8447180416543</v>
       </c>
       <c r="K40" t="n">
-        <v>206.2251575856881</v>
+        <v>206.2251575856879</v>
       </c>
       <c r="L40" t="n">
-        <v>332.1182490022083</v>
+        <v>750.3281307701691</v>
       </c>
       <c r="M40" t="n">
-        <v>924.3387295679237</v>
+        <v>1342.548611335884</v>
       </c>
       <c r="N40" t="n">
-        <v>1153.408024081041</v>
+        <v>1914.387847892959</v>
       </c>
       <c r="O40" t="n">
-        <v>1692.765776752099</v>
+        <v>2208.465445586771</v>
       </c>
       <c r="P40" t="n">
-        <v>2142.68686224778</v>
+        <v>2310.879637112109</v>
       </c>
       <c r="Q40" t="n">
-        <v>2381.785914783481</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R40" t="n">
-        <v>2398.868615956152</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S40" t="n">
-        <v>2398.868615956152</v>
+        <v>2254.683941399238</v>
       </c>
       <c r="T40" t="n">
-        <v>2234.87996598025</v>
+        <v>2012.496016233924</v>
       </c>
       <c r="U40" t="n">
-        <v>1956.494091036626</v>
+        <v>1745.244353262763</v>
       </c>
       <c r="V40" t="n">
-        <v>1669.538582907057</v>
+        <v>1458.288845133194</v>
       </c>
       <c r="W40" t="n">
-        <v>1397.512178493348</v>
+        <v>1186.262440719485</v>
       </c>
       <c r="X40" t="n">
-        <v>1152.120423826761</v>
+        <v>940.8706860528978</v>
       </c>
       <c r="Y40" t="n">
-        <v>924.700753140869</v>
+        <v>713.451015367006</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>293.5022628434917</v>
+        <v>893.7433133181706</v>
       </c>
       <c r="C41" t="n">
-        <v>293.5022628434917</v>
+        <v>455.600840501594</v>
       </c>
       <c r="D41" t="n">
-        <v>47.97737231912303</v>
+        <v>455.600840501594</v>
       </c>
       <c r="E41" t="n">
-        <v>47.97737231912303</v>
+        <v>455.600840501594</v>
       </c>
       <c r="F41" t="n">
-        <v>47.97737231912303</v>
+        <v>447.449123964179</v>
       </c>
       <c r="G41" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H41" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I41" t="n">
-        <v>120.3463876521526</v>
+        <v>120.3463876521525</v>
       </c>
       <c r="J41" t="n">
-        <v>280.5668724472631</v>
+        <v>280.566872447263</v>
       </c>
       <c r="K41" t="n">
-        <v>520.6958462790552</v>
+        <v>520.6958462790549</v>
       </c>
       <c r="L41" t="n">
-        <v>818.597071973742</v>
+        <v>818.5970719737413</v>
       </c>
       <c r="M41" t="n">
-        <v>1150.069584980172</v>
+        <v>1150.069584980171</v>
       </c>
       <c r="N41" t="n">
-        <v>1486.905669790889</v>
+        <v>1486.905669790888</v>
       </c>
       <c r="O41" t="n">
-        <v>1804.970433130816</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P41" t="n">
-        <v>2076.431349953072</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q41" t="n">
-        <v>2280.287193219312</v>
+        <v>2280.28719321931</v>
       </c>
       <c r="R41" t="n">
-        <v>2398.868615956152</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S41" t="n">
-        <v>2359.107284025648</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="T41" t="n">
-        <v>2147.471470924117</v>
+        <v>2147.471470924114</v>
       </c>
       <c r="U41" t="n">
-        <v>1888.403254619668</v>
+        <v>2147.471470924114</v>
       </c>
       <c r="V41" t="n">
-        <v>1525.786304553494</v>
+        <v>2147.471470924114</v>
       </c>
       <c r="W41" t="n">
-        <v>1120.930849964528</v>
+        <v>2147.471470924114</v>
       </c>
       <c r="X41" t="n">
-        <v>701.7883865438383</v>
+        <v>1728.329007503425</v>
       </c>
       <c r="Y41" t="n">
-        <v>293.5022628434917</v>
+        <v>1320.042883803078</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>543.1656930669189</v>
       </c>
       <c r="C42" t="n">
-        <v>436.7092319035613</v>
+        <v>436.7092319035612</v>
       </c>
       <c r="D42" t="n">
         <v>341.6189430501145</v>
@@ -7481,37 +7481,37 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G42" t="n">
-        <v>79.76014376868008</v>
+        <v>79.76014376868005</v>
       </c>
       <c r="H42" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I42" t="n">
-        <v>82.75272404474133</v>
+        <v>55.59900615728668</v>
       </c>
       <c r="J42" t="n">
-        <v>178.1789471685048</v>
+        <v>151.0252292810501</v>
       </c>
       <c r="K42" t="n">
-        <v>341.2775617522103</v>
+        <v>314.1238438647555</v>
       </c>
       <c r="L42" t="n">
-        <v>560.5837766791827</v>
+        <v>533.4300587917276</v>
       </c>
       <c r="M42" t="n">
-        <v>816.5037854930639</v>
+        <v>789.3500676056086</v>
       </c>
       <c r="N42" t="n">
-        <v>1079.197235426496</v>
+        <v>1052.04351753904</v>
       </c>
       <c r="O42" t="n">
-        <v>1319.510420784408</v>
+        <v>1292.356702896953</v>
       </c>
       <c r="P42" t="n">
-        <v>1512.382938418799</v>
+        <v>1485.229220531343</v>
       </c>
       <c r="Q42" t="n">
-        <v>1641.313108689168</v>
+        <v>1614.159390801712</v>
       </c>
       <c r="R42" t="n">
         <v>1676.870203416725</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>510.4981846755582</v>
+        <v>1029.830104712534</v>
       </c>
       <c r="C43" t="n">
-        <v>337.9364731587831</v>
+        <v>857.2683931957589</v>
       </c>
       <c r="D43" t="n">
-        <v>217.7353760683858</v>
+        <v>691.3904003972816</v>
       </c>
       <c r="E43" t="n">
-        <v>47.97737231912303</v>
+        <v>521.6323966480188</v>
       </c>
       <c r="F43" t="n">
-        <v>47.97737231912303</v>
+        <v>344.925342609775</v>
       </c>
       <c r="G43" t="n">
-        <v>47.97737231912303</v>
+        <v>180.1980406955714</v>
       </c>
       <c r="H43" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I43" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J43" t="n">
-        <v>107.8447180416544</v>
+        <v>107.8447180416543</v>
       </c>
       <c r="K43" t="n">
-        <v>206.2251575856881</v>
+        <v>206.2251575856879</v>
       </c>
       <c r="L43" t="n">
-        <v>505.0479757929248</v>
+        <v>750.3281307701691</v>
       </c>
       <c r="M43" t="n">
-        <v>1097.26845635864</v>
+        <v>1342.548611335884</v>
       </c>
       <c r="N43" t="n">
-        <v>1669.107692915715</v>
+        <v>1914.387847892959</v>
       </c>
       <c r="O43" t="n">
-        <v>2208.465445586774</v>
+        <v>2208.465445586771</v>
       </c>
       <c r="P43" t="n">
-        <v>2310.879637112112</v>
+        <v>2310.879637112109</v>
       </c>
       <c r="Q43" t="n">
-        <v>2381.785914783481</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R43" t="n">
-        <v>2398.868615956152</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.683941399241</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T43" t="n">
-        <v>2012.496016233926</v>
+        <v>2253.442061327278</v>
       </c>
       <c r="U43" t="n">
-        <v>1734.110141290303</v>
+        <v>2253.442061327278</v>
       </c>
       <c r="V43" t="n">
-        <v>1447.154633160733</v>
+        <v>1966.486553197709</v>
       </c>
       <c r="W43" t="n">
-        <v>1175.128228747025</v>
+        <v>1694.460148784</v>
       </c>
       <c r="X43" t="n">
-        <v>929.7364740804371</v>
+        <v>1449.068394117413</v>
       </c>
       <c r="Y43" t="n">
-        <v>702.3168033945453</v>
+        <v>1221.648723431521</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>716.8538144688944</v>
+        <v>1157.261512783649</v>
       </c>
       <c r="C44" t="n">
-        <v>716.8538144688944</v>
+        <v>753.2918476493937</v>
       </c>
       <c r="D44" t="n">
-        <v>716.8538144688944</v>
+        <v>317.3820628238382</v>
       </c>
       <c r="E44" t="n">
-        <v>716.8538144688944</v>
+        <v>317.3820628238382</v>
       </c>
       <c r="F44" t="n">
-        <v>716.8538144688944</v>
+        <v>317.3820628238382</v>
       </c>
       <c r="G44" t="n">
-        <v>317.3820628238383</v>
+        <v>317.3820628238382</v>
       </c>
       <c r="H44" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I44" t="n">
-        <v>120.3463876521526</v>
+        <v>120.3463876521521</v>
       </c>
       <c r="J44" t="n">
-        <v>280.5668724472633</v>
+        <v>280.5668724472631</v>
       </c>
       <c r="K44" t="n">
-        <v>520.6958462790553</v>
+        <v>520.6958462790549</v>
       </c>
       <c r="L44" t="n">
-        <v>818.5970719737421</v>
+        <v>818.5970719737413</v>
       </c>
       <c r="M44" t="n">
-        <v>1150.069584980172</v>
+        <v>1150.069584980171</v>
       </c>
       <c r="N44" t="n">
-        <v>1486.905669790889</v>
+        <v>1486.905669790888</v>
       </c>
       <c r="O44" t="n">
-        <v>1804.970433130816</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P44" t="n">
-        <v>2076.431349953072</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q44" t="n">
-        <v>2280.287193219312</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R44" t="n">
-        <v>2398.868615956152</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S44" t="n">
-        <v>2359.107284025648</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T44" t="n">
-        <v>2147.471470924117</v>
+        <v>2187.232802854618</v>
       </c>
       <c r="U44" t="n">
-        <v>1888.403254619668</v>
+        <v>1928.164586550169</v>
       </c>
       <c r="V44" t="n">
-        <v>1525.786304553494</v>
+        <v>1565.547636483995</v>
       </c>
       <c r="W44" t="n">
-        <v>1525.786304553494</v>
+        <v>1565.547636483995</v>
       </c>
       <c r="X44" t="n">
-        <v>1525.786304553494</v>
+        <v>1565.547636483995</v>
       </c>
       <c r="Y44" t="n">
-        <v>1143.153384953802</v>
+        <v>1157.261512783649</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>543.1656930669189</v>
       </c>
       <c r="C45" t="n">
-        <v>436.7092319035613</v>
+        <v>436.7092319035612</v>
       </c>
       <c r="D45" t="n">
         <v>341.6189430501145</v>
@@ -7718,31 +7718,31 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G45" t="n">
-        <v>79.76014376868008</v>
+        <v>79.76014376868005</v>
       </c>
       <c r="H45" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I45" t="n">
-        <v>55.59900615728498</v>
+        <v>55.59900615728668</v>
       </c>
       <c r="J45" t="n">
-        <v>151.0252292810485</v>
+        <v>151.0252292810501</v>
       </c>
       <c r="K45" t="n">
-        <v>314.123843864754</v>
+        <v>314.1238438647555</v>
       </c>
       <c r="L45" t="n">
-        <v>533.4300587917264</v>
+        <v>533.4300587917276</v>
       </c>
       <c r="M45" t="n">
-        <v>789.3500676056076</v>
+        <v>789.3500676056086</v>
       </c>
       <c r="N45" t="n">
-        <v>1052.043517539039</v>
+        <v>1052.04351753904</v>
       </c>
       <c r="O45" t="n">
-        <v>1292.356702896952</v>
+        <v>1292.356702896953</v>
       </c>
       <c r="P45" t="n">
         <v>1485.229220531343</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>654.6828592324691</v>
+        <v>846.501477951454</v>
       </c>
       <c r="C46" t="n">
-        <v>482.1211477156941</v>
+        <v>673.939766434679</v>
       </c>
       <c r="D46" t="n">
-        <v>394.4424301066296</v>
+        <v>508.0617736362017</v>
       </c>
       <c r="E46" t="n">
-        <v>224.6844263573668</v>
+        <v>338.3037698869389</v>
       </c>
       <c r="F46" t="n">
-        <v>47.97737231912303</v>
+        <v>161.5967158486951</v>
       </c>
       <c r="G46" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H46" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I46" t="n">
-        <v>47.97737231912303</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J46" t="n">
-        <v>107.8447180416544</v>
+        <v>194.4244032063441</v>
       </c>
       <c r="K46" t="n">
-        <v>206.2251575856881</v>
+        <v>567.5632973215133</v>
       </c>
       <c r="L46" t="n">
-        <v>505.0479757929248</v>
+        <v>1111.666270505995</v>
       </c>
       <c r="M46" t="n">
-        <v>1097.26845635864</v>
+        <v>1244.402883890797</v>
       </c>
       <c r="N46" t="n">
-        <v>1669.107692915715</v>
+        <v>1373.983317290227</v>
       </c>
       <c r="O46" t="n">
-        <v>2208.465445586774</v>
+        <v>1692.765776752097</v>
       </c>
       <c r="P46" t="n">
-        <v>2310.879637112112</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q46" t="n">
-        <v>2381.785914783481</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R46" t="n">
-        <v>2398.868615956152</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S46" t="n">
-        <v>2398.868615956152</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T46" t="n">
-        <v>2156.680690790837</v>
+        <v>2156.680690790835</v>
       </c>
       <c r="U46" t="n">
-        <v>1878.294815847214</v>
+        <v>1878.294815847211</v>
       </c>
       <c r="V46" t="n">
-        <v>1591.339307717644</v>
+        <v>1591.339307717642</v>
       </c>
       <c r="W46" t="n">
-        <v>1319.312903303936</v>
+        <v>1319.312903303933</v>
       </c>
       <c r="X46" t="n">
-        <v>1073.921148637348</v>
+        <v>1073.921148637346</v>
       </c>
       <c r="Y46" t="n">
-        <v>846.5014779514563</v>
+        <v>846.501477951454</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>174.6764917077928</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>159.4141117208508</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9090,16 +9090,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>159.4141117208505</v>
+        <v>201.1050060773662</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>159.4141117208491</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>198.9683314953534</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>199.6308975341152</v>
+        <v>63.70511254175528</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>417.0260386927466</v>
+        <v>417.0260386927489</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9798,22 +9798,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>154.2022382325542</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>251.9773501405232</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>417.0260386927466</v>
+        <v>417.0260386927489</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>365.0854038885748</v>
+        <v>365.0854038885755</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>148.2375309151093</v>
+        <v>148.2375309151121</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>154.2022382325537</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>340.1309980622541</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>413.368332520032</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>174.5203978424688</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>148.2375309151121</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>411.5481574537893</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10524,10 +10524,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>82.78507884101919</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>142.1846934612498</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>63.70511254175653</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10986,22 +10986,22 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
-        <v>100.4937991047341</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>176.1506002510459</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>174.6764917077944</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645587</v>
@@ -11232,7 +11232,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>176.1506002510459</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>174.6764917077944</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>201.1050060773671</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>398.653471459554</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.4770341286055</v>
+        <v>44.50511777309845</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>39.36371861119829</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T11" t="n">
         <v>209.5194549705165</v>
@@ -23317,10 +23317,10 @@
         <v>256.4775341414042</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.7660459136613</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>222.0700992259978</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>93.48586159470594</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H14" t="n">
-        <v>266.7106435996681</v>
+        <v>189.2000426192006</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.36371861119829</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4775341414042</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>168.4290814229797</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>45.22012675100005</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0800288950615</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.05114379168069</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>108.1064335293353</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>79.70237493295451</v>
       </c>
       <c r="G17" t="n">
         <v>395.4770341286055</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.36371861119829</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U17" t="n">
-        <v>11.62470788330194</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23895,13 +23895,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>47.39279398311241</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>51.23400482439277</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.87346979539814</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>267.3064887309669</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>395.4770341286055</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>39.36371861119829</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U20" t="n">
         <v>256.4775341414042</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0800288950615</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I22" t="n">
-        <v>62.05114379168069</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>182.9981482297749</v>
+        <v>215.1797154321549</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>284.8407172077363</v>
+        <v>119.8064162400051</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>92.42140436012721</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>64.5762196317973</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.36371861119829</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.5194549705165</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>264.9648662609201</v>
+        <v>108.5091194037865</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.36371861119829</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>58.54995292178023</v>
       </c>
       <c r="Y32" t="n">
-        <v>160.1740888011071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25162,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H35" t="n">
         <v>266.7106435996681</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.36371861119829</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.5194549705165</v>
       </c>
       <c r="U35" t="n">
-        <v>42.90972482323548</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>220.8430790640399</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>11.02286985273824</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.05114379168069</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>215.1797154321529</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>56.50663819954337</v>
       </c>
       <c r="G38" t="n">
-        <v>283.1551818965472</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0800288950615</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.05114379168068</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>77.41728243751854</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>11.02286985273838</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>188.4810453581749</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>415.5185559228435</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>266.7106435996681</v>
@@ -25684,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>45.22012675099916</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0800288950615</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.05114379168068</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>95.79375683107889</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6020161941874</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>33.83107960549836</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -25879,7 +25879,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>25.39667205964798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>77.41728243751867</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0800288950615</v>
+        <v>50.59687880078508</v>
       </c>
       <c r="H46" t="n">
         <v>130.898461692684</v>
       </c>
       <c r="I46" t="n">
-        <v>62.05114379168068</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>295967.8660696014</v>
+        <v>295967.8660696013</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>295967.8660696014</v>
+        <v>295967.8660696012</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>295967.8660696014</v>
+        <v>295967.8660696012</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>295967.8660696015</v>
+        <v>295967.8660696013</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>377129.4708412944</v>
+        <v>377129.4708412945</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>377129.4708412944</v>
+        <v>377129.4708412946</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>377129.4708412945</v>
+        <v>377129.4708412946</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>377129.4708412945</v>
+        <v>377129.4708412946</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>295967.8660696014</v>
+        <v>295967.8660696013</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>295967.8660696015</v>
+        <v>295967.8660696013</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>295967.8660696016</v>
+        <v>295967.8660696013</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>295967.8660696015</v>
+        <v>295967.8660696013</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>457961.5537785678</v>
+        <v>457961.5537785679</v>
       </c>
       <c r="C2" t="n">
         <v>457961.5537785679</v>
       </c>
       <c r="D2" t="n">
-        <v>457961.5537785679</v>
+        <v>457961.5537785678</v>
       </c>
       <c r="E2" t="n">
-        <v>278760.295596422</v>
+        <v>278760.2955964219</v>
       </c>
       <c r="F2" t="n">
-        <v>278760.2955964221</v>
+        <v>278760.2955964219</v>
       </c>
       <c r="G2" t="n">
-        <v>278760.2955964222</v>
+        <v>278760.2955964219</v>
       </c>
       <c r="H2" t="n">
-        <v>278760.2955964222</v>
+        <v>278760.2955964219</v>
       </c>
       <c r="I2" t="n">
         <v>330991.8959469763</v>
       </c>
       <c r="J2" t="n">
-        <v>330991.8959469765</v>
+        <v>330991.8959469763</v>
       </c>
       <c r="K2" t="n">
         <v>330991.8959469764</v>
@@ -26349,13 +26349,13 @@
         <v>278760.295596422</v>
       </c>
       <c r="N2" t="n">
-        <v>278760.2955964222</v>
+        <v>278760.2955964219</v>
       </c>
       <c r="O2" t="n">
-        <v>278760.2955964222</v>
+        <v>278760.2955964219</v>
       </c>
       <c r="P2" t="n">
-        <v>278760.2955964221</v>
+        <v>278760.295596422</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>560133.4314193971</v>
+        <v>560133.4314193972</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39481.79578470904</v>
+        <v>39481.79578470922</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>112452.1225892035</v>
+        <v>112452.1225892033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>17681.23318360266</v>
+        <v>17681.23318360264</v>
       </c>
       <c r="F4" t="n">
+        <v>17681.23318360264</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17681.23318360264</v>
+      </c>
+      <c r="H4" t="n">
+        <v>17681.23318360263</v>
+      </c>
+      <c r="I4" t="n">
+        <v>46702.59551343975</v>
+      </c>
+      <c r="J4" t="n">
+        <v>46702.59551343975</v>
+      </c>
+      <c r="K4" t="n">
+        <v>46702.59551343978</v>
+      </c>
+      <c r="L4" t="n">
+        <v>46702.59551343979</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17681.23318360264</v>
+      </c>
+      <c r="N4" t="n">
         <v>17681.23318360265</v>
       </c>
-      <c r="G4" t="n">
-        <v>17681.23318360266</v>
-      </c>
-      <c r="H4" t="n">
-        <v>17681.23318360266</v>
-      </c>
-      <c r="I4" t="n">
-        <v>46702.59551343966</v>
-      </c>
-      <c r="J4" t="n">
-        <v>46702.59551343966</v>
-      </c>
-      <c r="K4" t="n">
-        <v>46702.59551343966</v>
-      </c>
-      <c r="L4" t="n">
-        <v>46702.59551343966</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>17681.23318360265</v>
       </c>
-      <c r="N4" t="n">
-        <v>17681.23318360266</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17681.23318360266</v>
-      </c>
       <c r="P4" t="n">
-        <v>17681.23318360266</v>
+        <v>17681.23318360264</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46803.00533885192</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="F5" t="n">
-        <v>46803.00533885192</v>
+        <v>46803.00533885188</v>
       </c>
       <c r="G5" t="n">
-        <v>46803.00533885193</v>
+        <v>46803.00533885188</v>
       </c>
       <c r="H5" t="n">
-        <v>46803.00533885193</v>
+        <v>46803.00533885188</v>
       </c>
       <c r="I5" t="n">
-        <v>55830.09678221409</v>
+        <v>55830.09678221408</v>
       </c>
       <c r="J5" t="n">
-        <v>55830.09678221409</v>
+        <v>55830.09678221408</v>
       </c>
       <c r="K5" t="n">
-        <v>55830.09678221409</v>
+        <v>55830.09678221408</v>
       </c>
       <c r="L5" t="n">
-        <v>55830.09678221409</v>
+        <v>55830.09678221408</v>
       </c>
       <c r="M5" t="n">
-        <v>46803.00533885192</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="N5" t="n">
-        <v>46803.00533885194</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="O5" t="n">
-        <v>46803.00533885194</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="P5" t="n">
-        <v>46803.00533885194</v>
+        <v>46803.00533885189</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125603.237466735</v>
+        <v>125571.3307492334</v>
       </c>
       <c r="C6" t="n">
-        <v>125603.2374667351</v>
+        <v>125571.3307492335</v>
       </c>
       <c r="D6" t="n">
-        <v>125603.2374667351</v>
+        <v>125571.3307492334</v>
       </c>
       <c r="E6" t="n">
-        <v>-345857.3743454297</v>
+        <v>-346401.2846577375</v>
       </c>
       <c r="F6" t="n">
-        <v>214276.0570739675</v>
+        <v>213732.1467616597</v>
       </c>
       <c r="G6" t="n">
-        <v>214276.0570739676</v>
+        <v>213732.1467616597</v>
       </c>
       <c r="H6" t="n">
-        <v>214276.0570739676</v>
+        <v>213732.1467616597</v>
       </c>
       <c r="I6" t="n">
-        <v>188977.4078666135</v>
+        <v>188582.7306981643</v>
       </c>
       <c r="J6" t="n">
-        <v>228459.2036513228</v>
+        <v>228064.5264828736</v>
       </c>
       <c r="K6" t="n">
-        <v>228459.2036513226</v>
+        <v>228064.5264828736</v>
       </c>
       <c r="L6" t="n">
-        <v>228459.2036513227</v>
+        <v>228064.5264828736</v>
       </c>
       <c r="M6" t="n">
-        <v>101823.934484764</v>
+        <v>101280.0241724565</v>
       </c>
       <c r="N6" t="n">
-        <v>214276.0570739676</v>
+        <v>213732.1467616597</v>
       </c>
       <c r="O6" t="n">
-        <v>214276.0570739676</v>
+        <v>213732.1467616597</v>
       </c>
       <c r="P6" t="n">
-        <v>214276.0570739675</v>
+        <v>213732.1467616598</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>474.3212099228638</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="F3" t="n">
-        <v>474.3212099228639</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="G3" t="n">
-        <v>474.3212099228639</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="H3" t="n">
-        <v>474.3212099228639</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="I3" t="n">
-        <v>474.3212099228639</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="J3" t="n">
-        <v>474.3212099228639</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="K3" t="n">
-        <v>474.3212099228639</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="L3" t="n">
-        <v>474.3212099228639</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="M3" t="n">
-        <v>474.3212099228639</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="N3" t="n">
-        <v>474.3212099228641</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="O3" t="n">
-        <v>474.3212099228641</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="P3" t="n">
-        <v>474.3212099228641</v>
+        <v>474.3212099228636</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>599.7171539890377</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="F4" t="n">
-        <v>599.7171539890377</v>
+        <v>599.7171539890371</v>
       </c>
       <c r="G4" t="n">
-        <v>599.7171539890378</v>
+        <v>599.7171539890371</v>
       </c>
       <c r="H4" t="n">
-        <v>599.7171539890378</v>
+        <v>599.7171539890371</v>
       </c>
       <c r="I4" t="n">
         <v>748.189052728547</v>
@@ -26822,16 +26822,16 @@
         <v>748.189052728547</v>
       </c>
       <c r="M4" t="n">
-        <v>599.7171539890377</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="N4" t="n">
-        <v>599.7171539890379</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="O4" t="n">
-        <v>599.7171539890379</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="P4" t="n">
-        <v>599.7171539890379</v>
+        <v>599.7171539890373</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>474.3212099228634</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>599.7171539890377</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>148.4718987395092</v>
+        <v>148.4718987395099</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>451.2452552495284</v>
+        <v>451.2452552495276</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>599.7171539890377</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H11" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I11" t="n">
-        <v>73.51263696704005</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J11" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K11" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L11" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M11" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N11" t="n">
-        <v>340.2384695057745</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O11" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P11" t="n">
-        <v>274.2029462851064</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q11" t="n">
         <v>205.9149931982217</v>
       </c>
       <c r="R11" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S11" t="n">
-        <v>43.45163646680307</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T11" t="n">
-        <v>8.34709988517522</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H12" t="n">
-        <v>9.853351926888173</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I12" t="n">
-        <v>7.698620038548029</v>
+        <v>7.698620038549187</v>
       </c>
       <c r="J12" t="n">
-        <v>96.39012436743785</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K12" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L12" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M12" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N12" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O12" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P12" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q12" t="n">
         <v>130.2324952225946</v>
       </c>
       <c r="R12" t="n">
-        <v>63.34425516667984</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S12" t="n">
-        <v>18.95047475493705</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T12" t="n">
-        <v>4.112275395463318</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06712092593248076</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8553333293690986</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H13" t="n">
-        <v>7.604690873845264</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I13" t="n">
-        <v>25.72220594139072</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J13" t="n">
-        <v>60.47206638639527</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K13" t="n">
-        <v>99.3741813576098</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L13" t="n">
         <v>127.1647388045658</v>
@@ -31934,25 +31934,25 @@
         <v>130.8893266660913</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P13" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.62250269835243</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R13" t="n">
-        <v>38.45889679145055</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S13" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T13" t="n">
-        <v>3.654606043667966</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04665454523831453</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.906818934363271</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H14" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I14" t="n">
-        <v>73.51263696704007</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J14" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5545190220121</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L14" t="n">
-        <v>300.9103289845321</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M14" t="n">
-        <v>334.8207202085149</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N14" t="n">
-        <v>340.2384695057746</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O14" t="n">
-        <v>321.2775387271998</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P14" t="n">
-        <v>274.2029462851065</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q14" t="n">
-        <v>205.9149931982218</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R14" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S14" t="n">
-        <v>43.45163646680307</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T14" t="n">
-        <v>8.347099885175222</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H15" t="n">
-        <v>9.853351926888175</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I15" t="n">
-        <v>7.698620038547844</v>
+        <v>7.698620038549578</v>
       </c>
       <c r="J15" t="n">
-        <v>96.39012436743786</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K15" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L15" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M15" t="n">
-        <v>258.5050594079608</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N15" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O15" t="n">
-        <v>242.7405912706189</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P15" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R15" t="n">
-        <v>63.34425516667986</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S15" t="n">
-        <v>18.95047475493705</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T15" t="n">
-        <v>4.112275395463319</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06712092593248077</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8553333293690988</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H16" t="n">
-        <v>7.604690873845266</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I16" t="n">
-        <v>25.72220594139073</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J16" t="n">
-        <v>60.47206638639528</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K16" t="n">
-        <v>99.37418135760983</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L16" t="n">
-        <v>127.1647388045659</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M16" t="n">
-        <v>134.0773872573761</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N16" t="n">
-        <v>130.8893266660914</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P16" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.62250269835245</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R16" t="n">
-        <v>38.45889679145056</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S16" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T16" t="n">
-        <v>3.654606043667967</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04665454523831453</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.906818934363271</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H17" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I17" t="n">
-        <v>73.51263696704007</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J17" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K17" t="n">
-        <v>242.5545190220121</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L17" t="n">
-        <v>300.9103289845321</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M17" t="n">
-        <v>334.8207202085149</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N17" t="n">
-        <v>340.2384695057746</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O17" t="n">
-        <v>321.2775387271998</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P17" t="n">
-        <v>274.2029462851065</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q17" t="n">
-        <v>205.9149931982218</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R17" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S17" t="n">
-        <v>43.45163646680307</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T17" t="n">
-        <v>8.347099885175222</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H18" t="n">
-        <v>9.853351926888175</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I18" t="n">
-        <v>35.12661790466493</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J18" t="n">
-        <v>68.96212650132075</v>
+        <v>68.96212650132247</v>
       </c>
       <c r="K18" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L18" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M18" t="n">
-        <v>258.5050594079608</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N18" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O18" t="n">
-        <v>242.7405912706189</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P18" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R18" t="n">
-        <v>63.34425516667986</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S18" t="n">
-        <v>18.95047475493705</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T18" t="n">
-        <v>4.112275395463319</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06712092593248077</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8553333293690988</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H19" t="n">
-        <v>7.604690873845266</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I19" t="n">
-        <v>25.72220594139073</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J19" t="n">
-        <v>60.47206638639528</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K19" t="n">
-        <v>99.37418135760983</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L19" t="n">
-        <v>127.1647388045659</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M19" t="n">
-        <v>134.0773872573761</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N19" t="n">
-        <v>130.8893266660914</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P19" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.62250269835245</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R19" t="n">
-        <v>38.45889679145056</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S19" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T19" t="n">
-        <v>3.654606043667967</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04665454523831453</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.906818934363271</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H20" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I20" t="n">
-        <v>73.51263696704007</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J20" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5545190220121</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L20" t="n">
-        <v>300.9103289845321</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M20" t="n">
-        <v>334.8207202085149</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N20" t="n">
-        <v>340.2384695057746</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O20" t="n">
-        <v>321.2775387271998</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P20" t="n">
-        <v>274.2029462851065</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q20" t="n">
-        <v>205.9149931982218</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R20" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S20" t="n">
-        <v>43.45163646680307</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T20" t="n">
-        <v>8.347099885175222</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H21" t="n">
-        <v>9.853351926888175</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I21" t="n">
-        <v>35.12661790466493</v>
+        <v>7.698620038549578</v>
       </c>
       <c r="J21" t="n">
-        <v>68.96212650132075</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K21" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L21" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M21" t="n">
-        <v>258.5050594079608</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N21" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O21" t="n">
-        <v>242.7405912706189</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P21" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R21" t="n">
-        <v>63.34425516667986</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S21" t="n">
-        <v>18.95047475493705</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T21" t="n">
-        <v>4.112275395463319</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06712092593248077</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8553333293690988</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H22" t="n">
-        <v>7.604690873845266</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I22" t="n">
-        <v>25.72220594139073</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J22" t="n">
-        <v>60.47206638639528</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K22" t="n">
-        <v>99.37418135760983</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L22" t="n">
-        <v>127.1647388045659</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M22" t="n">
-        <v>134.0773872573761</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N22" t="n">
-        <v>130.8893266660914</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P22" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.62250269835245</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R22" t="n">
-        <v>38.45889679145056</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S22" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T22" t="n">
-        <v>3.654606043667967</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04665454523831453</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.906818934363271</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H23" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I23" t="n">
-        <v>73.51263696704007</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J23" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5545190220121</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L23" t="n">
-        <v>300.9103289845321</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M23" t="n">
-        <v>334.8207202085149</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N23" t="n">
-        <v>340.2384695057746</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O23" t="n">
-        <v>321.2775387271998</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P23" t="n">
-        <v>274.2029462851065</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.9149931982218</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R23" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S23" t="n">
-        <v>43.45163646680307</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T23" t="n">
-        <v>8.347099885175222</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H24" t="n">
-        <v>9.853351926888175</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I24" t="n">
-        <v>7.698620038548071</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J24" t="n">
-        <v>96.39012436743786</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K24" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L24" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M24" t="n">
-        <v>258.5050594079608</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N24" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O24" t="n">
-        <v>242.7405912706189</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P24" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.2324952225947</v>
+        <v>102.804497356479</v>
       </c>
       <c r="R24" t="n">
-        <v>63.34425516667986</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S24" t="n">
-        <v>18.95047475493705</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T24" t="n">
-        <v>4.112275395463319</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06712092593248077</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8553333293690988</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H25" t="n">
-        <v>7.604690873845266</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I25" t="n">
-        <v>25.72220594139073</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J25" t="n">
-        <v>60.47206638639528</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K25" t="n">
-        <v>99.37418135760983</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L25" t="n">
-        <v>127.1647388045659</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M25" t="n">
-        <v>134.0773872573761</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N25" t="n">
-        <v>130.8893266660914</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O25" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P25" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.62250269835245</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R25" t="n">
-        <v>38.45889679145056</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S25" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T25" t="n">
-        <v>3.654606043667967</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04665454523831453</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.906818934363271</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H26" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I26" t="n">
-        <v>73.51263696704007</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J26" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K26" t="n">
-        <v>242.5545190220121</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L26" t="n">
-        <v>300.9103289845321</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M26" t="n">
-        <v>334.8207202085149</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N26" t="n">
-        <v>340.2384695057746</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O26" t="n">
-        <v>321.2775387271998</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P26" t="n">
-        <v>274.2029462851065</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.9149931982218</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R26" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S26" t="n">
-        <v>43.45163646680307</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T26" t="n">
-        <v>8.347099885175222</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H27" t="n">
-        <v>9.853351926888175</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I27" t="n">
-        <v>7.698620038548071</v>
+        <v>7.698620038549421</v>
       </c>
       <c r="J27" t="n">
-        <v>96.39012436743786</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K27" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L27" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M27" t="n">
-        <v>258.5050594079608</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N27" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O27" t="n">
-        <v>242.7405912706189</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P27" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R27" t="n">
-        <v>63.34425516667986</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S27" t="n">
-        <v>18.95047475493705</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T27" t="n">
-        <v>4.112275395463319</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06712092593248077</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8553333293690988</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H28" t="n">
-        <v>7.604690873845266</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I28" t="n">
-        <v>25.72220594139073</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J28" t="n">
-        <v>60.47206638639528</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K28" t="n">
-        <v>99.37418135760983</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L28" t="n">
-        <v>127.1647388045659</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M28" t="n">
-        <v>134.0773872573761</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N28" t="n">
-        <v>130.8893266660914</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O28" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P28" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.62250269835245</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R28" t="n">
-        <v>38.45889679145056</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S28" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T28" t="n">
-        <v>3.654606043667967</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04665454523831453</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.906818934363271</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H29" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I29" t="n">
-        <v>73.51263696704007</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J29" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K29" t="n">
-        <v>242.5545190220121</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L29" t="n">
-        <v>300.9103289845321</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M29" t="n">
-        <v>334.8207202085149</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N29" t="n">
-        <v>340.2384695057746</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O29" t="n">
-        <v>321.2775387271998</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P29" t="n">
-        <v>274.2029462851065</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.9149931982218</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R29" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S29" t="n">
-        <v>43.45163646680307</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T29" t="n">
-        <v>8.347099885175222</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H30" t="n">
-        <v>9.853351926888175</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I30" t="n">
-        <v>7.698620038548071</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J30" t="n">
-        <v>96.39012436743786</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K30" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L30" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M30" t="n">
-        <v>258.5050594079608</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N30" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O30" t="n">
-        <v>242.7405912706189</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P30" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R30" t="n">
-        <v>63.34425516667986</v>
+        <v>35.91625730056444</v>
       </c>
       <c r="S30" t="n">
-        <v>18.95047475493705</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T30" t="n">
-        <v>4.112275395463319</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06712092593248077</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8553333293690988</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H31" t="n">
-        <v>7.604690873845266</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I31" t="n">
-        <v>25.72220594139073</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J31" t="n">
-        <v>60.47206638639528</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K31" t="n">
-        <v>99.37418135760983</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L31" t="n">
-        <v>127.1647388045659</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M31" t="n">
-        <v>134.0773872573761</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N31" t="n">
-        <v>130.8893266660914</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O31" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P31" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.62250269835245</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R31" t="n">
-        <v>38.45889679145056</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S31" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T31" t="n">
-        <v>3.654606043667967</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04665454523831453</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.906818934363271</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H32" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I32" t="n">
-        <v>73.51263696704007</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J32" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K32" t="n">
-        <v>242.5545190220121</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L32" t="n">
-        <v>300.9103289845321</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M32" t="n">
-        <v>334.8207202085149</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N32" t="n">
-        <v>340.2384695057746</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O32" t="n">
-        <v>321.2775387271998</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P32" t="n">
-        <v>274.2029462851065</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q32" t="n">
-        <v>205.9149931982218</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R32" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S32" t="n">
-        <v>43.45163646680307</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T32" t="n">
-        <v>8.347099885175222</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H33" t="n">
-        <v>9.853351926888175</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I33" t="n">
-        <v>35.12661790466493</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J33" t="n">
-        <v>96.39012436743786</v>
+        <v>68.96212650132232</v>
       </c>
       <c r="K33" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L33" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M33" t="n">
-        <v>258.5050594079608</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N33" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O33" t="n">
-        <v>242.7405912706189</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P33" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.8044973564779</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R33" t="n">
-        <v>63.34425516667986</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S33" t="n">
-        <v>18.95047475493705</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T33" t="n">
-        <v>4.112275395463319</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06712092593248077</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8553333293690988</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H34" t="n">
-        <v>7.604690873845266</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I34" t="n">
-        <v>25.72220594139073</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J34" t="n">
-        <v>60.47206638639528</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K34" t="n">
-        <v>99.37418135760983</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L34" t="n">
-        <v>127.1647388045659</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M34" t="n">
-        <v>134.0773872573761</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N34" t="n">
-        <v>130.8893266660914</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O34" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P34" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.62250269835245</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R34" t="n">
-        <v>38.45889679145056</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S34" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T34" t="n">
-        <v>3.654606043667967</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04665454523831453</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.906818934363271</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H35" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I35" t="n">
-        <v>73.51263696704007</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J35" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5545190220121</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L35" t="n">
-        <v>300.9103289845321</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M35" t="n">
-        <v>334.8207202085149</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N35" t="n">
-        <v>340.2384695057746</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O35" t="n">
-        <v>321.2775387271998</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P35" t="n">
-        <v>274.2029462851065</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q35" t="n">
-        <v>205.9149931982218</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R35" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S35" t="n">
-        <v>43.45163646680307</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T35" t="n">
-        <v>8.347099885175222</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H36" t="n">
-        <v>9.853351926888175</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I36" t="n">
-        <v>7.698620038547844</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J36" t="n">
-        <v>96.39012436743786</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K36" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L36" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M36" t="n">
-        <v>258.5050594079608</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N36" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O36" t="n">
-        <v>242.7405912706189</v>
+        <v>215.3125934045029</v>
       </c>
       <c r="P36" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225946</v>
       </c>
       <c r="R36" t="n">
-        <v>63.34425516667986</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S36" t="n">
-        <v>18.95047475493705</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T36" t="n">
-        <v>4.112275395463319</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06712092593248077</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8553333293690988</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H37" t="n">
-        <v>7.604690873845266</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I37" t="n">
-        <v>25.72220594139073</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J37" t="n">
-        <v>60.47206638639528</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K37" t="n">
-        <v>99.37418135760983</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L37" t="n">
-        <v>127.1647388045659</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M37" t="n">
-        <v>134.0773872573761</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N37" t="n">
-        <v>130.8893266660914</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O37" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P37" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.62250269835245</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R37" t="n">
-        <v>38.45889679145056</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S37" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T37" t="n">
-        <v>3.654606043667967</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04665454523831453</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.906818934363271</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H38" t="n">
-        <v>19.52820941154786</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I38" t="n">
-        <v>73.51263696704008</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J38" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5545190220122</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L38" t="n">
-        <v>300.9103289845322</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M38" t="n">
-        <v>334.820720208515</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N38" t="n">
-        <v>340.2384695057747</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O38" t="n">
-        <v>321.2775387271998</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P38" t="n">
-        <v>274.2029462851066</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q38" t="n">
-        <v>205.9149931982219</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R38" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S38" t="n">
-        <v>43.45163646680309</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T38" t="n">
-        <v>8.347099885175224</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1525455147490617</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.020238074173708</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H39" t="n">
-        <v>9.853351926888179</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I39" t="n">
-        <v>7.698620038547418</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J39" t="n">
-        <v>96.39012436743789</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K39" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L39" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M39" t="n">
-        <v>258.5050594079609</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N39" t="n">
-        <v>265.3469191246785</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O39" t="n">
-        <v>242.7405912706189</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P39" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225946</v>
       </c>
       <c r="R39" t="n">
-        <v>63.34425516667987</v>
+        <v>35.91625730056398</v>
       </c>
       <c r="S39" t="n">
-        <v>18.95047475493705</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T39" t="n">
-        <v>4.11227539546332</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06712092593248078</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.855333329369099</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H40" t="n">
-        <v>7.604690873845268</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I40" t="n">
-        <v>25.72220594139073</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J40" t="n">
-        <v>60.4720663863953</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K40" t="n">
-        <v>99.37418135760984</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L40" t="n">
-        <v>127.1647388045659</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M40" t="n">
-        <v>134.0773872573761</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N40" t="n">
-        <v>130.8893266660914</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P40" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.62250269835248</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R40" t="n">
-        <v>38.45889679145057</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S40" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T40" t="n">
-        <v>3.654606043667968</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04665454523831455</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.906818934363271</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H41" t="n">
-        <v>19.52820941154786</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I41" t="n">
-        <v>73.51263696704008</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J41" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K41" t="n">
-        <v>242.5545190220122</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L41" t="n">
-        <v>300.9103289845322</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M41" t="n">
-        <v>334.820720208515</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N41" t="n">
-        <v>340.2384695057747</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O41" t="n">
-        <v>321.2775387271998</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P41" t="n">
-        <v>274.2029462851066</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q41" t="n">
-        <v>205.9149931982219</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R41" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S41" t="n">
-        <v>43.45163646680309</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T41" t="n">
-        <v>8.347099885175224</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1525455147490617</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.020238074173708</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H42" t="n">
-        <v>9.853351926888179</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I42" t="n">
-        <v>35.12661790466494</v>
+        <v>7.698620038549187</v>
       </c>
       <c r="J42" t="n">
-        <v>96.39012436743789</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K42" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L42" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M42" t="n">
-        <v>258.5050594079609</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N42" t="n">
-        <v>265.3469191246785</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O42" t="n">
-        <v>242.7405912706189</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P42" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225946</v>
       </c>
       <c r="R42" t="n">
-        <v>35.91625730056239</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S42" t="n">
-        <v>18.95047475493705</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T42" t="n">
-        <v>4.11227539546332</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06712092593248078</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.855333329369099</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H43" t="n">
-        <v>7.604690873845268</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I43" t="n">
-        <v>25.72220594139073</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J43" t="n">
-        <v>60.4720663863953</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K43" t="n">
-        <v>99.37418135760984</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L43" t="n">
-        <v>127.1647388045659</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M43" t="n">
-        <v>134.0773872573761</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N43" t="n">
-        <v>130.8893266660914</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P43" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.62250269835248</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R43" t="n">
-        <v>38.45889679145057</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S43" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T43" t="n">
-        <v>3.654606043667968</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04665454523831455</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.906818934363271</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H44" t="n">
-        <v>19.52820941154786</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I44" t="n">
-        <v>73.51263696704008</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J44" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5545190220122</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L44" t="n">
-        <v>300.9103289845322</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M44" t="n">
-        <v>334.820720208515</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N44" t="n">
-        <v>340.2384695057747</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O44" t="n">
-        <v>321.2775387271998</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P44" t="n">
-        <v>274.2029462851066</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q44" t="n">
-        <v>205.9149931982219</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R44" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S44" t="n">
-        <v>43.45163646680309</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T44" t="n">
-        <v>8.347099885175224</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1525455147490617</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.020238074173708</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H45" t="n">
-        <v>9.853351926888179</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I45" t="n">
-        <v>7.698620038547418</v>
+        <v>7.698620038549187</v>
       </c>
       <c r="J45" t="n">
-        <v>96.39012436743789</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K45" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L45" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M45" t="n">
-        <v>258.5050594079609</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N45" t="n">
-        <v>265.3469191246785</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O45" t="n">
-        <v>242.7405912706189</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P45" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225946</v>
       </c>
       <c r="R45" t="n">
-        <v>63.34425516667987</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S45" t="n">
-        <v>18.95047475493705</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T45" t="n">
-        <v>4.11227539546332</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06712092593248078</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.855333329369099</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H46" t="n">
-        <v>7.604690873845268</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I46" t="n">
-        <v>25.72220594139073</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J46" t="n">
-        <v>60.4720663863953</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K46" t="n">
-        <v>99.37418135760984</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L46" t="n">
-        <v>127.1647388045659</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M46" t="n">
-        <v>134.0773872573761</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N46" t="n">
-        <v>130.8893266660914</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P46" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q46" t="n">
-        <v>71.62250269835248</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R46" t="n">
-        <v>38.45889679145057</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S46" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T46" t="n">
-        <v>3.654606043667968</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04665454523831455</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>73.10001548790865</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J11" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K11" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L11" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M11" t="n">
-        <v>334.8207202085149</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N11" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O11" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P11" t="n">
-        <v>274.2029462851065</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q11" t="n">
-        <v>205.914993198222</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R11" t="n">
-        <v>119.7792148856965</v>
+        <v>119.779214885697</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.698620038548029</v>
+        <v>7.698620038549187</v>
       </c>
       <c r="J12" t="n">
-        <v>96.39012436743785</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K12" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L12" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M12" t="n">
-        <v>258.5050594079609</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N12" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O12" t="n">
         <v>242.7405912706188</v>
       </c>
       <c r="P12" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R12" t="n">
         <v>63.34425516667989</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>147.926293825476</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K13" t="n">
-        <v>376.9079738537064</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L13" t="n">
-        <v>127.1647388045658</v>
+        <v>301.8412305123585</v>
       </c>
       <c r="M13" t="n">
-        <v>598.2025056219347</v>
+        <v>598.2025056219346</v>
       </c>
       <c r="N13" t="n">
-        <v>130.8893266660914</v>
+        <v>577.615390461692</v>
       </c>
       <c r="O13" t="n">
-        <v>280.311589948403</v>
+        <v>544.8058107788465</v>
       </c>
       <c r="P13" t="n">
-        <v>454.4657429249294</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q13" t="n">
-        <v>241.5141944805064</v>
+        <v>71.62250269835249</v>
       </c>
       <c r="R13" t="n">
-        <v>17.25525370976871</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>73.10001548790866</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J14" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304145</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5545190220121</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L14" t="n">
-        <v>300.9103289845322</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M14" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N14" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O14" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P14" t="n">
-        <v>274.2029462851067</v>
+        <v>274.2029462851065</v>
       </c>
       <c r="Q14" t="n">
-        <v>205.914993198222</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R14" t="n">
         <v>119.7792148856965</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.698620038547844</v>
+        <v>7.698620038549578</v>
       </c>
       <c r="J15" t="n">
-        <v>96.39012436743786</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K15" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L15" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M15" t="n">
-        <v>258.5050594079609</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N15" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O15" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706186</v>
       </c>
       <c r="P15" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R15" t="n">
         <v>63.34425516667989</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>147.926293825476</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K16" t="n">
-        <v>376.9079738537064</v>
+        <v>376.9079738537063</v>
       </c>
       <c r="L16" t="n">
-        <v>127.1647388045659</v>
+        <v>549.5989628126074</v>
       </c>
       <c r="M16" t="n">
-        <v>598.2025056219348</v>
+        <v>134.0773872573759</v>
       </c>
       <c r="N16" t="n">
-        <v>130.8893266660914</v>
+        <v>130.8893266660912</v>
       </c>
       <c r="O16" t="n">
-        <v>280.3115899484028</v>
+        <v>322.0024843049184</v>
       </c>
       <c r="P16" t="n">
         <v>454.4657429249294</v>
@@ -35828,7 +35828,7 @@
         <v>241.5141944805064</v>
       </c>
       <c r="R16" t="n">
-        <v>17.25525370976873</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>73.10001548790866</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J17" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304145</v>
       </c>
       <c r="K17" t="n">
-        <v>242.5545190220121</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L17" t="n">
-        <v>300.9103289845323</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M17" t="n">
-        <v>334.820720208515</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N17" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O17" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P17" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851065</v>
       </c>
       <c r="Q17" t="n">
-        <v>205.914993198222</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R17" t="n">
-        <v>119.779214885697</v>
+        <v>119.7792148856965</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>35.12661790466493</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J18" t="n">
-        <v>68.96212650132075</v>
+        <v>68.96212650132247</v>
       </c>
       <c r="K18" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L18" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M18" t="n">
-        <v>258.5050594079609</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N18" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O18" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706186</v>
       </c>
       <c r="P18" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R18" t="n">
         <v>63.34425516667989</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>60.47206638639528</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K19" t="n">
-        <v>99.37418135760984</v>
+        <v>376.9079738537063</v>
       </c>
       <c r="L19" t="n">
-        <v>549.5989628126074</v>
+        <v>286.5788505254149</v>
       </c>
       <c r="M19" t="n">
         <v>598.2025056219346</v>
       </c>
       <c r="N19" t="n">
-        <v>329.8576581614448</v>
+        <v>130.8893266660912</v>
       </c>
       <c r="O19" t="n">
-        <v>544.8058107788465</v>
+        <v>120.8974782275523</v>
       </c>
       <c r="P19" t="n">
-        <v>103.4486783084226</v>
+        <v>454.4657429249294</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.62250269835249</v>
+        <v>241.5141944805064</v>
       </c>
       <c r="R19" t="n">
-        <v>17.25525370976873</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>73.10001548790866</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J20" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304141</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5545190220121</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L20" t="n">
-        <v>300.9103289845323</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M20" t="n">
-        <v>334.820720208515</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N20" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O20" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P20" t="n">
         <v>274.2029462851062</v>
       </c>
       <c r="Q20" t="n">
-        <v>205.914993198222</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R20" t="n">
         <v>119.779214885697</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>35.12661790466493</v>
+        <v>7.698620038549578</v>
       </c>
       <c r="J21" t="n">
-        <v>68.96212650132075</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K21" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L21" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M21" t="n">
-        <v>258.5050594079609</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N21" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O21" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706186</v>
       </c>
       <c r="P21" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R21" t="n">
         <v>63.34425516667989</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>147.926293825476</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K22" t="n">
-        <v>376.9079738537064</v>
+        <v>376.9079738537063</v>
       </c>
       <c r="L22" t="n">
-        <v>326.7956363386811</v>
+        <v>190.8698513463211</v>
       </c>
       <c r="M22" t="n">
-        <v>134.0773872573761</v>
+        <v>598.2025056219346</v>
       </c>
       <c r="N22" t="n">
-        <v>130.8893266660914</v>
+        <v>577.6153904616917</v>
       </c>
       <c r="O22" t="n">
-        <v>544.8058107788468</v>
+        <v>120.8974782275523</v>
       </c>
       <c r="P22" t="n">
-        <v>454.4657429249294</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q22" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R22" t="n">
-        <v>17.25525370976873</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>73.10001548790866</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J23" t="n">
-        <v>578.8649122231615</v>
+        <v>578.8649122231635</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5545190220121</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L23" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M23" t="n">
-        <v>334.820720208515</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N23" t="n">
-        <v>340.2384695057747</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O23" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P23" t="n">
         <v>274.2029462851065</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.914993198222</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R23" t="n">
         <v>290.6419065554514</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.698620038548071</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J24" t="n">
-        <v>96.39012436743786</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K24" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L24" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M24" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N24" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O24" t="n">
         <v>242.7405912706188</v>
       </c>
       <c r="P24" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.2324952225947</v>
+        <v>102.804497356479</v>
       </c>
       <c r="R24" t="n">
         <v>63.34425516667989</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>147.926293825476</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K25" t="n">
-        <v>376.9079738537063</v>
+        <v>253.5764195901639</v>
       </c>
       <c r="L25" t="n">
-        <v>549.5989628126074</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M25" t="n">
-        <v>598.2025056219347</v>
+        <v>598.2025056219346</v>
       </c>
       <c r="N25" t="n">
-        <v>382.8666768066146</v>
+        <v>577.6153904616917</v>
       </c>
       <c r="O25" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P25" t="n">
-        <v>103.4486783084226</v>
+        <v>454.4657429249296</v>
       </c>
       <c r="Q25" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R25" t="n">
-        <v>17.25525370976873</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>73.10001548790866</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J26" t="n">
-        <v>578.8649122231615</v>
+        <v>578.8649122231635</v>
       </c>
       <c r="K26" t="n">
-        <v>242.5545190220121</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L26" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M26" t="n">
-        <v>334.820720208515</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N26" t="n">
-        <v>340.2384695057747</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O26" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P26" t="n">
         <v>274.2029462851065</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.914993198222</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R26" t="n">
         <v>290.6419065554514</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.698620038548071</v>
+        <v>7.698620038549421</v>
       </c>
       <c r="J27" t="n">
-        <v>96.39012436743786</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K27" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L27" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M27" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N27" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O27" t="n">
         <v>242.7405912706188</v>
       </c>
       <c r="P27" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R27" t="n">
         <v>63.34425516667989</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>147.926293825476</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K28" t="n">
-        <v>376.9079738537063</v>
+        <v>376.9079738537064</v>
       </c>
       <c r="L28" t="n">
-        <v>549.5989628126074</v>
+        <v>549.5989628126072</v>
       </c>
       <c r="M28" t="n">
-        <v>134.0773872573761</v>
+        <v>134.0773872573759</v>
       </c>
       <c r="N28" t="n">
-        <v>495.9747305546662</v>
+        <v>495.9747305546666</v>
       </c>
       <c r="O28" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P28" t="n">
-        <v>454.4657429249296</v>
+        <v>454.4657429249291</v>
       </c>
       <c r="Q28" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R28" t="n">
-        <v>17.25525370976873</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>73.10001548790866</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J29" t="n">
-        <v>601.4900729778067</v>
+        <v>601.4900729778064</v>
       </c>
       <c r="K29" t="n">
-        <v>242.5545190220121</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L29" t="n">
-        <v>300.9103289845322</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M29" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N29" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O29" t="n">
-        <v>321.2775387272</v>
+        <v>321.2775387271993</v>
       </c>
       <c r="P29" t="n">
-        <v>274.2029462851065</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.914993198222</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R29" t="n">
-        <v>268.0167458008063</v>
+        <v>268.0167458008091</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.698620038548071</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J30" t="n">
-        <v>96.39012436743786</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K30" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L30" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M30" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N30" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O30" t="n">
         <v>242.7405912706188</v>
       </c>
       <c r="P30" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R30" t="n">
-        <v>63.34425516667989</v>
+        <v>35.91625730056444</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>147.926293825476</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K31" t="n">
-        <v>99.37418135760981</v>
+        <v>99.37418135760973</v>
       </c>
       <c r="L31" t="n">
-        <v>281.3669770371195</v>
+        <v>549.5989628126074</v>
       </c>
       <c r="M31" t="n">
         <v>598.2025056219347</v>
       </c>
       <c r="N31" t="n">
-        <v>577.615390461692</v>
+        <v>577.6153904616917</v>
       </c>
       <c r="O31" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P31" t="n">
-        <v>454.4657429249296</v>
+        <v>443.5796763706767</v>
       </c>
       <c r="Q31" t="n">
-        <v>241.5141944805064</v>
+        <v>71.62250269835249</v>
       </c>
       <c r="R31" t="n">
-        <v>17.25525370976873</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>73.10001548790866</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J32" t="n">
-        <v>161.8388735304148</v>
+        <v>601.4900729778064</v>
       </c>
       <c r="K32" t="n">
-        <v>242.5545190220121</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L32" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M32" t="n">
-        <v>748.189052728547</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N32" t="n">
-        <v>514.7588673482435</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O32" t="n">
-        <v>321.2775387272</v>
+        <v>321.2775387271993</v>
       </c>
       <c r="P32" t="n">
-        <v>274.2029462851065</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q32" t="n">
-        <v>205.914993198222</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R32" t="n">
-        <v>119.779214885697</v>
+        <v>268.0167458008091</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>35.12661790466494</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J33" t="n">
-        <v>96.39012436743786</v>
+        <v>68.96212650132232</v>
       </c>
       <c r="K33" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L33" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M33" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N33" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O33" t="n">
         <v>242.7405912706188</v>
       </c>
       <c r="P33" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.8044973564779</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R33" t="n">
         <v>63.34425516667989</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>147.926293825476</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K34" t="n">
-        <v>99.37418135760981</v>
+        <v>99.37418135760973</v>
       </c>
       <c r="L34" t="n">
-        <v>549.5989628126074</v>
+        <v>538.7128962583549</v>
       </c>
       <c r="M34" t="n">
-        <v>598.2025056219347</v>
+        <v>598.2025056219346</v>
       </c>
       <c r="N34" t="n">
-        <v>577.615390461692</v>
+        <v>577.6153904616917</v>
       </c>
       <c r="O34" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P34" t="n">
-        <v>186.2337571494418</v>
+        <v>454.4657429249291</v>
       </c>
       <c r="Q34" t="n">
-        <v>241.5141944805064</v>
+        <v>71.62250269835249</v>
       </c>
       <c r="R34" t="n">
-        <v>17.25525370976873</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>73.10001548790866</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J35" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5545190220121</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L35" t="n">
-        <v>300.9103289845322</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M35" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N35" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O35" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P35" t="n">
-        <v>274.2029462851067</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q35" t="n">
-        <v>205.914993198222</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R35" t="n">
-        <v>119.7792148856965</v>
+        <v>119.779214885697</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.698620038547844</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J36" t="n">
-        <v>96.39012436743786</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K36" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L36" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M36" t="n">
-        <v>258.5050594079609</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N36" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O36" t="n">
-        <v>242.7405912706188</v>
+        <v>215.3125934045029</v>
       </c>
       <c r="P36" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R36" t="n">
         <v>63.34425516667989</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>147.926293825476</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K37" t="n">
-        <v>376.9079738537064</v>
+        <v>241.5588748188595</v>
       </c>
       <c r="L37" t="n">
-        <v>127.1647388045659</v>
+        <v>549.5989628126073</v>
       </c>
       <c r="M37" t="n">
-        <v>598.2025056219348</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N37" t="n">
-        <v>577.615390461692</v>
+        <v>130.8893266660912</v>
       </c>
       <c r="O37" t="n">
-        <v>120.8974782275523</v>
+        <v>544.8058107788468</v>
       </c>
       <c r="P37" t="n">
-        <v>167.1537908501793</v>
+        <v>454.4657429249294</v>
       </c>
       <c r="Q37" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R37" t="n">
-        <v>17.25525370976873</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>73.10001548790868</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J38" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5545190220121</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L38" t="n">
-        <v>300.9103289845322</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M38" t="n">
-        <v>334.8207202085149</v>
+        <v>334.8207202085148</v>
       </c>
       <c r="N38" t="n">
-        <v>340.2384695057747</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O38" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P38" t="n">
         <v>274.2029462851065</v>
       </c>
       <c r="Q38" t="n">
-        <v>205.914993198222</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R38" t="n">
-        <v>119.779214885697</v>
+        <v>119.7792148856965</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.698620038547418</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J39" t="n">
-        <v>96.39012436743789</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K39" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L39" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M39" t="n">
-        <v>258.5050594079609</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N39" t="n">
-        <v>265.3469191246785</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O39" t="n">
-        <v>242.740591270619</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P39" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R39" t="n">
-        <v>63.34425516667989</v>
+        <v>35.91625730056398</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>60.4720663863953</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K40" t="n">
-        <v>99.37418135760984</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L40" t="n">
-        <v>127.1647388045659</v>
+        <v>549.5989628126072</v>
       </c>
       <c r="M40" t="n">
-        <v>598.2025056219347</v>
+        <v>598.2025056219345</v>
       </c>
       <c r="N40" t="n">
-        <v>231.3831257708255</v>
+        <v>577.615390461692</v>
       </c>
       <c r="O40" t="n">
-        <v>544.8058107788468</v>
+        <v>297.048078478598</v>
       </c>
       <c r="P40" t="n">
-        <v>454.4657429249296</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q40" t="n">
-        <v>241.5141944805064</v>
+        <v>71.62250269835249</v>
       </c>
       <c r="R40" t="n">
-        <v>17.25525370976873</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>73.10001548790868</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J41" t="n">
         <v>161.8388735304147</v>
       </c>
       <c r="K41" t="n">
-        <v>242.5545190220122</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L41" t="n">
-        <v>300.9103289845322</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M41" t="n">
-        <v>334.820720208515</v>
+        <v>334.8207202085148</v>
       </c>
       <c r="N41" t="n">
-        <v>340.2384695057747</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O41" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P41" t="n">
         <v>274.2029462851065</v>
       </c>
       <c r="Q41" t="n">
-        <v>205.914993198222</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R41" t="n">
-        <v>119.779214885697</v>
+        <v>119.7792148856965</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.12661790466494</v>
+        <v>7.698620038549187</v>
       </c>
       <c r="J42" t="n">
-        <v>96.39012436743789</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K42" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L42" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M42" t="n">
-        <v>258.5050594079609</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N42" t="n">
-        <v>265.3469191246785</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O42" t="n">
-        <v>242.740591270619</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P42" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R42" t="n">
-        <v>35.91625730056239</v>
+        <v>63.34425516667989</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>60.4720663863953</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K43" t="n">
-        <v>99.37418135760984</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L43" t="n">
-        <v>301.8412305123603</v>
+        <v>549.5989628126072</v>
       </c>
       <c r="M43" t="n">
-        <v>598.2025056219347</v>
+        <v>598.2025056219345</v>
       </c>
       <c r="N43" t="n">
         <v>577.615390461692</v>
       </c>
       <c r="O43" t="n">
-        <v>544.8058107788468</v>
+        <v>297.048078478598</v>
       </c>
       <c r="P43" t="n">
         <v>103.4486783084226</v>
@@ -37961,7 +37961,7 @@
         <v>71.62250269835249</v>
       </c>
       <c r="R43" t="n">
-        <v>17.25525370976873</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>73.10001548790868</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J44" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304152</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5545190220121</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L44" t="n">
-        <v>300.9103289845322</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M44" t="n">
-        <v>334.8207202085149</v>
+        <v>334.8207202085148</v>
       </c>
       <c r="N44" t="n">
-        <v>340.2384695057747</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O44" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271993</v>
       </c>
       <c r="P44" t="n">
-        <v>274.2029462851065</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q44" t="n">
-        <v>205.914993198222</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R44" t="n">
         <v>119.779214885697</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.698620038547418</v>
+        <v>7.698620038549187</v>
       </c>
       <c r="J45" t="n">
-        <v>96.39012436743789</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K45" t="n">
-        <v>164.7460753370763</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L45" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M45" t="n">
-        <v>258.5050594079609</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N45" t="n">
-        <v>265.3469191246785</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O45" t="n">
-        <v>242.740591270619</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P45" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R45" t="n">
         <v>63.34425516667989</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>60.4720663863953</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K46" t="n">
-        <v>99.37418135760984</v>
+        <v>376.9079738537063</v>
       </c>
       <c r="L46" t="n">
-        <v>301.8412305123603</v>
+        <v>549.5989628126074</v>
       </c>
       <c r="M46" t="n">
-        <v>598.2025056219347</v>
+        <v>134.0773872573759</v>
       </c>
       <c r="N46" t="n">
-        <v>577.615390461692</v>
+        <v>130.8893266660912</v>
       </c>
       <c r="O46" t="n">
-        <v>544.8058107788468</v>
+        <v>322.0024843049193</v>
       </c>
       <c r="P46" t="n">
-        <v>103.4486783084226</v>
+        <v>454.4657429249294</v>
       </c>
       <c r="Q46" t="n">
-        <v>71.62250269835249</v>
+        <v>241.5141944805064</v>
       </c>
       <c r="R46" t="n">
-        <v>17.25525370976873</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
